--- a/data/trans_orig/P74B-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P74B-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8AE0FDB1-4584-43F8-981A-53F538B643CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{670A7575-BD92-4914-BA9E-B37C0B657B39}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{06484ACF-A528-4591-BEF1-7F8CDA1BCC6D}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{9659C4E7-C526-4174-B7CE-2D85BC470748}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="618" uniqueCount="338">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="618" uniqueCount="336">
   <si>
     <t>Población según si su pareja percibe algún tipo de pensión en 2007 (Tasa respuesta: 30,9%)</t>
   </si>
@@ -76,28 +76,28 @@
     <t>16,07%</t>
   </si>
   <si>
-    <t>8,7%</t>
-  </si>
-  <si>
-    <t>26,86%</t>
+    <t>8,81%</t>
+  </si>
+  <si>
+    <t>27,21%</t>
   </si>
   <si>
     <t>75,91%</t>
   </si>
   <si>
-    <t>60,17%</t>
-  </si>
-  <si>
-    <t>87,18%</t>
+    <t>60,08%</t>
+  </si>
+  <si>
+    <t>88,68%</t>
   </si>
   <si>
     <t>37,31%</t>
   </si>
   <si>
-    <t>28,22%</t>
-  </si>
-  <si>
-    <t>47,82%</t>
+    <t>27,92%</t>
+  </si>
+  <si>
+    <t>47,49%</t>
   </si>
   <si>
     <t>No</t>
@@ -106,28 +106,28 @@
     <t>83,93%</t>
   </si>
   <si>
-    <t>73,14%</t>
-  </si>
-  <si>
-    <t>91,3%</t>
+    <t>72,79%</t>
+  </si>
+  <si>
+    <t>91,19%</t>
   </si>
   <si>
     <t>24,09%</t>
   </si>
   <si>
-    <t>12,82%</t>
-  </si>
-  <si>
-    <t>39,83%</t>
+    <t>11,32%</t>
+  </si>
+  <si>
+    <t>39,92%</t>
   </si>
   <si>
     <t>62,69%</t>
   </si>
   <si>
-    <t>52,18%</t>
-  </si>
-  <si>
-    <t>71,78%</t>
+    <t>52,51%</t>
+  </si>
+  <si>
+    <t>72,08%</t>
   </si>
   <si>
     <t>100%</t>
@@ -139,838 +139,835 @@
     <t>7,35%</t>
   </si>
   <si>
-    <t>4,84%</t>
+    <t>4,58%</t>
+  </si>
+  <si>
+    <t>11,06%</t>
+  </si>
+  <si>
+    <t>87,96%</t>
+  </si>
+  <si>
+    <t>80,71%</t>
+  </si>
+  <si>
+    <t>93,71%</t>
+  </si>
+  <si>
+    <t>31,33%</t>
+  </si>
+  <si>
+    <t>26,6%</t>
+  </si>
+  <si>
+    <t>35,92%</t>
+  </si>
+  <si>
+    <t>92,65%</t>
+  </si>
+  <si>
+    <t>88,94%</t>
+  </si>
+  <si>
+    <t>95,42%</t>
+  </si>
+  <si>
+    <t>12,04%</t>
+  </si>
+  <si>
+    <t>6,29%</t>
+  </si>
+  <si>
+    <t>19,29%</t>
+  </si>
+  <si>
+    <t>68,67%</t>
+  </si>
+  <si>
+    <t>64,08%</t>
+  </si>
+  <si>
+    <t>73,4%</t>
+  </si>
+  <si>
+    <t>10/50</t>
+  </si>
+  <si>
+    <t>8,17%</t>
+  </si>
+  <si>
+    <t>5,92%</t>
+  </si>
+  <si>
+    <t>11,26%</t>
+  </si>
+  <si>
+    <t>85,7%</t>
+  </si>
+  <si>
+    <t>79,63%</t>
+  </si>
+  <si>
+    <t>90,73%</t>
+  </si>
+  <si>
+    <t>29,64%</t>
+  </si>
+  <si>
+    <t>25,99%</t>
+  </si>
+  <si>
+    <t>33,63%</t>
+  </si>
+  <si>
+    <t>91,83%</t>
+  </si>
+  <si>
+    <t>88,74%</t>
+  </si>
+  <si>
+    <t>94,08%</t>
+  </si>
+  <si>
+    <t>14,3%</t>
+  </si>
+  <si>
+    <t>9,27%</t>
+  </si>
+  <si>
+    <t>20,37%</t>
+  </si>
+  <si>
+    <t>70,36%</t>
+  </si>
+  <si>
+    <t>66,37%</t>
+  </si>
+  <si>
+    <t>74,01%</t>
+  </si>
+  <si>
+    <t>mas de 50</t>
+  </si>
+  <si>
+    <t>4,95%</t>
+  </si>
+  <si>
+    <t>2,95%</t>
+  </si>
+  <si>
+    <t>8,13%</t>
+  </si>
+  <si>
+    <t>79,47%</t>
+  </si>
+  <si>
+    <t>72,25%</t>
+  </si>
+  <si>
+    <t>85,71%</t>
+  </si>
+  <si>
+    <t>25,67%</t>
+  </si>
+  <si>
+    <t>21,86%</t>
+  </si>
+  <si>
+    <t>29,93%</t>
+  </si>
+  <si>
+    <t>95,05%</t>
+  </si>
+  <si>
+    <t>91,87%</t>
+  </si>
+  <si>
+    <t>97,05%</t>
+  </si>
+  <si>
+    <t>20,53%</t>
+  </si>
+  <si>
+    <t>14,29%</t>
+  </si>
+  <si>
+    <t>27,75%</t>
+  </si>
+  <si>
+    <t>74,33%</t>
+  </si>
+  <si>
+    <t>70,07%</t>
+  </si>
+  <si>
+    <t>78,14%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>7,93%</t>
+  </si>
+  <si>
+    <t>5,36%</t>
   </si>
   <si>
     <t>11,18%</t>
   </si>
   <si>
-    <t>87,96%</t>
-  </si>
-  <si>
-    <t>79,82%</t>
-  </si>
-  <si>
-    <t>92,94%</t>
-  </si>
-  <si>
-    <t>31,33%</t>
-  </si>
-  <si>
-    <t>27,26%</t>
-  </si>
-  <si>
-    <t>35,55%</t>
-  </si>
-  <si>
-    <t>92,65%</t>
+    <t>74,26%</t>
+  </si>
+  <si>
+    <t>86,26%</t>
+  </si>
+  <si>
+    <t>33,01%</t>
+  </si>
+  <si>
+    <t>29,38%</t>
+  </si>
+  <si>
+    <t>37,52%</t>
+  </si>
+  <si>
+    <t>92,07%</t>
   </si>
   <si>
     <t>88,82%</t>
   </si>
   <si>
-    <t>95,16%</t>
-  </si>
-  <si>
-    <t>12,04%</t>
-  </si>
-  <si>
-    <t>7,06%</t>
-  </si>
-  <si>
-    <t>20,18%</t>
-  </si>
-  <si>
-    <t>68,67%</t>
-  </si>
-  <si>
-    <t>64,45%</t>
-  </si>
-  <si>
-    <t>72,74%</t>
-  </si>
-  <si>
-    <t>10/50</t>
-  </si>
-  <si>
-    <t>8,17%</t>
-  </si>
-  <si>
-    <t>5,79%</t>
-  </si>
-  <si>
-    <t>11,67%</t>
-  </si>
-  <si>
-    <t>85,7%</t>
-  </si>
-  <si>
-    <t>79,35%</t>
-  </si>
-  <si>
-    <t>90,84%</t>
-  </si>
-  <si>
-    <t>29,64%</t>
-  </si>
-  <si>
-    <t>25,63%</t>
-  </si>
-  <si>
-    <t>33,41%</t>
-  </si>
-  <si>
-    <t>91,83%</t>
-  </si>
-  <si>
-    <t>88,33%</t>
-  </si>
-  <si>
-    <t>94,21%</t>
-  </si>
-  <si>
-    <t>14,3%</t>
-  </si>
-  <si>
-    <t>9,16%</t>
-  </si>
-  <si>
-    <t>20,65%</t>
-  </si>
-  <si>
-    <t>70,36%</t>
-  </si>
-  <si>
-    <t>66,59%</t>
-  </si>
-  <si>
-    <t>74,37%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
-  </si>
-  <si>
-    <t>4,95%</t>
-  </si>
-  <si>
-    <t>2,97%</t>
-  </si>
-  <si>
-    <t>7,87%</t>
-  </si>
-  <si>
-    <t>79,47%</t>
-  </si>
-  <si>
-    <t>72,07%</t>
-  </si>
-  <si>
-    <t>85,9%</t>
-  </si>
-  <si>
-    <t>25,67%</t>
-  </si>
-  <si>
-    <t>21,85%</t>
+    <t>94,64%</t>
+  </si>
+  <si>
+    <t>13,74%</t>
+  </si>
+  <si>
+    <t>25,74%</t>
+  </si>
+  <si>
+    <t>66,99%</t>
+  </si>
+  <si>
+    <t>62,48%</t>
+  </si>
+  <si>
+    <t>70,62%</t>
+  </si>
+  <si>
+    <t>7,57%</t>
+  </si>
+  <si>
+    <t>6,15%</t>
+  </si>
+  <si>
+    <t>8,98%</t>
+  </si>
+  <si>
+    <t>82,9%</t>
+  </si>
+  <si>
+    <t>79,86%</t>
+  </si>
+  <si>
+    <t>85,86%</t>
+  </si>
+  <si>
+    <t>30,31%</t>
+  </si>
+  <si>
+    <t>28,31%</t>
+  </si>
+  <si>
+    <t>32,35%</t>
+  </si>
+  <si>
+    <t>92,43%</t>
+  </si>
+  <si>
+    <t>91,02%</t>
+  </si>
+  <si>
+    <t>93,85%</t>
+  </si>
+  <si>
+    <t>17,1%</t>
+  </si>
+  <si>
+    <t>14,14%</t>
+  </si>
+  <si>
+    <t>20,14%</t>
+  </si>
+  <si>
+    <t>69,69%</t>
+  </si>
+  <si>
+    <t>67,65%</t>
+  </si>
+  <si>
+    <t>71,69%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según si su pareja percibe algún tipo de pensión en 2012 (Tasa respuesta: 32,61%)</t>
+  </si>
+  <si>
+    <t>16,31%</t>
+  </si>
+  <si>
+    <t>6,47%</t>
+  </si>
+  <si>
+    <t>28,49%</t>
+  </si>
+  <si>
+    <t>77,8%</t>
+  </si>
+  <si>
+    <t>58,96%</t>
+  </si>
+  <si>
+    <t>89,42%</t>
+  </si>
+  <si>
+    <t>40,69%</t>
+  </si>
+  <si>
+    <t>28,9%</t>
+  </si>
+  <si>
+    <t>52,41%</t>
+  </si>
+  <si>
+    <t>83,69%</t>
+  </si>
+  <si>
+    <t>71,51%</t>
+  </si>
+  <si>
+    <t>93,53%</t>
+  </si>
+  <si>
+    <t>22,2%</t>
+  </si>
+  <si>
+    <t>10,58%</t>
+  </si>
+  <si>
+    <t>41,04%</t>
+  </si>
+  <si>
+    <t>59,31%</t>
+  </si>
+  <si>
+    <t>47,59%</t>
+  </si>
+  <si>
+    <t>71,1%</t>
+  </si>
+  <si>
+    <t>15,84%</t>
+  </si>
+  <si>
+    <t>11,61%</t>
+  </si>
+  <si>
+    <t>21,27%</t>
+  </si>
+  <si>
+    <t>57,25%</t>
+  </si>
+  <si>
+    <t>48,61%</t>
+  </si>
+  <si>
+    <t>64,38%</t>
+  </si>
+  <si>
+    <t>32,02%</t>
+  </si>
+  <si>
+    <t>27,31%</t>
+  </si>
+  <si>
+    <t>36,97%</t>
+  </si>
+  <si>
+    <t>84,16%</t>
+  </si>
+  <si>
+    <t>78,73%</t>
+  </si>
+  <si>
+    <t>88,39%</t>
+  </si>
+  <si>
+    <t>42,75%</t>
+  </si>
+  <si>
+    <t>35,62%</t>
+  </si>
+  <si>
+    <t>51,39%</t>
+  </si>
+  <si>
+    <t>67,98%</t>
+  </si>
+  <si>
+    <t>63,03%</t>
+  </si>
+  <si>
+    <t>72,69%</t>
+  </si>
+  <si>
+    <t>12,56%</t>
+  </si>
+  <si>
+    <t>9,47%</t>
+  </si>
+  <si>
+    <t>16,6%</t>
+  </si>
+  <si>
+    <t>65,54%</t>
+  </si>
+  <si>
+    <t>58,93%</t>
+  </si>
+  <si>
+    <t>71,27%</t>
+  </si>
+  <si>
+    <t>33,82%</t>
+  </si>
+  <si>
+    <t>30,02%</t>
+  </si>
+  <si>
+    <t>37,56%</t>
+  </si>
+  <si>
+    <t>87,44%</t>
+  </si>
+  <si>
+    <t>83,4%</t>
+  </si>
+  <si>
+    <t>90,53%</t>
+  </si>
+  <si>
+    <t>34,46%</t>
+  </si>
+  <si>
+    <t>28,73%</t>
+  </si>
+  <si>
+    <t>41,07%</t>
+  </si>
+  <si>
+    <t>66,18%</t>
+  </si>
+  <si>
+    <t>62,44%</t>
+  </si>
+  <si>
+    <t>69,98%</t>
+  </si>
+  <si>
+    <t>10,66%</t>
+  </si>
+  <si>
+    <t>7,21%</t>
+  </si>
+  <si>
+    <t>15,03%</t>
+  </si>
+  <si>
+    <t>68,25%</t>
+  </si>
+  <si>
+    <t>61,12%</t>
+  </si>
+  <si>
+    <t>33,49%</t>
+  </si>
+  <si>
+    <t>28,98%</t>
+  </si>
+  <si>
+    <t>38,34%</t>
+  </si>
+  <si>
+    <t>89,34%</t>
+  </si>
+  <si>
+    <t>84,97%</t>
+  </si>
+  <si>
+    <t>92,79%</t>
+  </si>
+  <si>
+    <t>31,75%</t>
+  </si>
+  <si>
+    <t>38,88%</t>
+  </si>
+  <si>
+    <t>66,51%</t>
+  </si>
+  <si>
+    <t>61,66%</t>
+  </si>
+  <si>
+    <t>71,02%</t>
+  </si>
+  <si>
+    <t>11,37%</t>
+  </si>
+  <si>
+    <t>8,18%</t>
+  </si>
+  <si>
+    <t>15,56%</t>
+  </si>
+  <si>
+    <t>76,76%</t>
+  </si>
+  <si>
+    <t>70,89%</t>
+  </si>
+  <si>
+    <t>81,53%</t>
+  </si>
+  <si>
+    <t>38,18%</t>
+  </si>
+  <si>
+    <t>34,5%</t>
+  </si>
+  <si>
+    <t>42,46%</t>
+  </si>
+  <si>
+    <t>88,63%</t>
+  </si>
+  <si>
+    <t>84,44%</t>
+  </si>
+  <si>
+    <t>91,82%</t>
+  </si>
+  <si>
+    <t>23,24%</t>
+  </si>
+  <si>
+    <t>18,47%</t>
+  </si>
+  <si>
+    <t>29,11%</t>
+  </si>
+  <si>
+    <t>61,82%</t>
+  </si>
+  <si>
+    <t>57,54%</t>
+  </si>
+  <si>
+    <t>65,5%</t>
+  </si>
+  <si>
+    <t>12,57%</t>
+  </si>
+  <si>
+    <t>14,56%</t>
+  </si>
+  <si>
+    <t>68,1%</t>
+  </si>
+  <si>
+    <t>64,88%</t>
+  </si>
+  <si>
+    <t>71,28%</t>
+  </si>
+  <si>
+    <t>34,81%</t>
+  </si>
+  <si>
+    <t>32,77%</t>
+  </si>
+  <si>
+    <t>36,93%</t>
+  </si>
+  <si>
+    <t>87,43%</t>
+  </si>
+  <si>
+    <t>85,44%</t>
+  </si>
+  <si>
+    <t>31,9%</t>
+  </si>
+  <si>
+    <t>28,72%</t>
+  </si>
+  <si>
+    <t>35,12%</t>
+  </si>
+  <si>
+    <t>65,19%</t>
+  </si>
+  <si>
+    <t>63,07%</t>
+  </si>
+  <si>
+    <t>67,23%</t>
+  </si>
+  <si>
+    <t>Población según si su pareja percibe algún tipo de pensión en 2015 (Tasa respuesta: 32,32%)</t>
+  </si>
+  <si>
+    <t>19,47%</t>
+  </si>
+  <si>
+    <t>9,65%</t>
+  </si>
+  <si>
+    <t>33,24%</t>
+  </si>
+  <si>
+    <t>68,59%</t>
+  </si>
+  <si>
+    <t>50,46%</t>
+  </si>
+  <si>
+    <t>83,96%</t>
+  </si>
+  <si>
+    <t>40,19%</t>
   </si>
   <si>
     <t>30,17%</t>
   </si>
   <si>
-    <t>95,05%</t>
-  </si>
-  <si>
-    <t>92,13%</t>
-  </si>
-  <si>
-    <t>97,03%</t>
-  </si>
-  <si>
-    <t>20,53%</t>
-  </si>
-  <si>
-    <t>14,1%</t>
-  </si>
-  <si>
-    <t>27,93%</t>
-  </si>
-  <si>
-    <t>74,33%</t>
+    <t>52,05%</t>
+  </si>
+  <si>
+    <t>80,53%</t>
+  </si>
+  <si>
+    <t>66,76%</t>
+  </si>
+  <si>
+    <t>90,35%</t>
+  </si>
+  <si>
+    <t>31,41%</t>
+  </si>
+  <si>
+    <t>16,04%</t>
+  </si>
+  <si>
+    <t>49,54%</t>
+  </si>
+  <si>
+    <t>59,81%</t>
+  </si>
+  <si>
+    <t>47,95%</t>
   </si>
   <si>
     <t>69,83%</t>
   </si>
   <si>
-    <t>78,15%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>7,93%</t>
-  </si>
-  <si>
-    <t>5,6%</t>
-  </si>
-  <si>
-    <t>11,4%</t>
-  </si>
-  <si>
-    <t>80,71%</t>
-  </si>
-  <si>
-    <t>73,87%</t>
-  </si>
-  <si>
-    <t>86,23%</t>
-  </si>
-  <si>
-    <t>33,01%</t>
-  </si>
-  <si>
-    <t>29,04%</t>
-  </si>
-  <si>
-    <t>37,24%</t>
-  </si>
-  <si>
-    <t>92,07%</t>
-  </si>
-  <si>
-    <t>88,6%</t>
-  </si>
-  <si>
-    <t>94,4%</t>
-  </si>
-  <si>
-    <t>19,29%</t>
-  </si>
-  <si>
-    <t>13,77%</t>
-  </si>
-  <si>
-    <t>26,13%</t>
-  </si>
-  <si>
-    <t>66,99%</t>
-  </si>
-  <si>
-    <t>62,76%</t>
-  </si>
-  <si>
-    <t>70,96%</t>
-  </si>
-  <si>
-    <t>7,57%</t>
-  </si>
-  <si>
-    <t>6,25%</t>
-  </si>
-  <si>
-    <t>9,1%</t>
-  </si>
-  <si>
-    <t>82,9%</t>
-  </si>
-  <si>
-    <t>79,55%</t>
-  </si>
-  <si>
-    <t>85,86%</t>
-  </si>
-  <si>
-    <t>30,31%</t>
-  </si>
-  <si>
-    <t>28,27%</t>
-  </si>
-  <si>
-    <t>32,28%</t>
-  </si>
-  <si>
-    <t>92,43%</t>
-  </si>
-  <si>
-    <t>90,9%</t>
-  </si>
-  <si>
-    <t>93,75%</t>
-  </si>
-  <si>
-    <t>17,1%</t>
-  </si>
-  <si>
-    <t>14,14%</t>
-  </si>
-  <si>
-    <t>20,45%</t>
-  </si>
-  <si>
-    <t>69,69%</t>
-  </si>
-  <si>
-    <t>67,72%</t>
-  </si>
-  <si>
-    <t>71,73%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según si su pareja percibe algún tipo de pensión en 2012 (Tasa respuesta: 32,61%)</t>
-  </si>
-  <si>
-    <t>16,31%</t>
+    <t>9,85%</t>
+  </si>
+  <si>
+    <t>6,48%</t>
+  </si>
+  <si>
+    <t>14,27%</t>
+  </si>
+  <si>
+    <t>66,53%</t>
+  </si>
+  <si>
+    <t>59,87%</t>
+  </si>
+  <si>
+    <t>73,71%</t>
+  </si>
+  <si>
+    <t>33,35%</t>
+  </si>
+  <si>
+    <t>28,97%</t>
+  </si>
+  <si>
+    <t>38,48%</t>
+  </si>
+  <si>
+    <t>90,15%</t>
+  </si>
+  <si>
+    <t>85,73%</t>
+  </si>
+  <si>
+    <t>93,52%</t>
+  </si>
+  <si>
+    <t>33,47%</t>
+  </si>
+  <si>
+    <t>26,29%</t>
+  </si>
+  <si>
+    <t>40,13%</t>
+  </si>
+  <si>
+    <t>66,65%</t>
+  </si>
+  <si>
+    <t>61,52%</t>
+  </si>
+  <si>
+    <t>71,03%</t>
+  </si>
+  <si>
+    <t>13,35%</t>
+  </si>
+  <si>
+    <t>10,33%</t>
+  </si>
+  <si>
+    <t>17,55%</t>
+  </si>
+  <si>
+    <t>64,2%</t>
+  </si>
+  <si>
+    <t>58,18%</t>
+  </si>
+  <si>
+    <t>69,96%</t>
+  </si>
+  <si>
+    <t>34,44%</t>
+  </si>
+  <si>
+    <t>31,19%</t>
+  </si>
+  <si>
+    <t>38,56%</t>
+  </si>
+  <si>
+    <t>86,65%</t>
+  </si>
+  <si>
+    <t>82,45%</t>
+  </si>
+  <si>
+    <t>89,67%</t>
+  </si>
+  <si>
+    <t>35,8%</t>
+  </si>
+  <si>
+    <t>30,04%</t>
+  </si>
+  <si>
+    <t>41,82%</t>
+  </si>
+  <si>
+    <t>65,56%</t>
+  </si>
+  <si>
+    <t>61,44%</t>
+  </si>
+  <si>
+    <t>68,81%</t>
   </si>
   <si>
     <t>7,9%</t>
   </si>
   <si>
-    <t>77,8%</t>
-  </si>
-  <si>
-    <t>59,24%</t>
-  </si>
-  <si>
-    <t>90,03%</t>
-  </si>
-  <si>
-    <t>40,69%</t>
-  </si>
-  <si>
-    <t>29,6%</t>
-  </si>
-  <si>
-    <t>51,92%</t>
-  </si>
-  <si>
-    <t>83,69%</t>
+    <t>5,23%</t>
+  </si>
+  <si>
+    <t>11,55%</t>
+  </si>
+  <si>
+    <t>63,01%</t>
+  </si>
+  <si>
+    <t>56,06%</t>
+  </si>
+  <si>
+    <t>69,89%</t>
+  </si>
+  <si>
+    <t>28,99%</t>
+  </si>
+  <si>
+    <t>24,89%</t>
+  </si>
+  <si>
+    <t>33,21%</t>
   </si>
   <si>
     <t>92,1%</t>
   </si>
   <si>
-    <t>22,2%</t>
-  </si>
-  <si>
-    <t>9,97%</t>
-  </si>
-  <si>
-    <t>40,76%</t>
-  </si>
-  <si>
-    <t>59,31%</t>
-  </si>
-  <si>
-    <t>48,08%</t>
-  </si>
-  <si>
-    <t>70,4%</t>
-  </si>
-  <si>
-    <t>15,84%</t>
-  </si>
-  <si>
-    <t>11,71%</t>
-  </si>
-  <si>
-    <t>21,81%</t>
-  </si>
-  <si>
-    <t>57,25%</t>
-  </si>
-  <si>
-    <t>49,74%</t>
-  </si>
-  <si>
-    <t>65,02%</t>
-  </si>
-  <si>
-    <t>32,02%</t>
-  </si>
-  <si>
-    <t>27,69%</t>
-  </si>
-  <si>
-    <t>36,92%</t>
-  </si>
-  <si>
-    <t>84,16%</t>
-  </si>
-  <si>
-    <t>78,19%</t>
-  </si>
-  <si>
-    <t>88,29%</t>
-  </si>
-  <si>
-    <t>42,75%</t>
-  </si>
-  <si>
-    <t>34,98%</t>
-  </si>
-  <si>
-    <t>50,26%</t>
-  </si>
-  <si>
-    <t>67,98%</t>
-  </si>
-  <si>
-    <t>63,08%</t>
-  </si>
-  <si>
-    <t>72,31%</t>
-  </si>
-  <si>
-    <t>12,56%</t>
-  </si>
-  <si>
-    <t>9,46%</t>
-  </si>
-  <si>
-    <t>16,5%</t>
-  </si>
-  <si>
-    <t>65,54%</t>
-  </si>
-  <si>
-    <t>59,03%</t>
-  </si>
-  <si>
-    <t>71,46%</t>
-  </si>
-  <si>
-    <t>33,82%</t>
-  </si>
-  <si>
-    <t>30,21%</t>
-  </si>
-  <si>
-    <t>37,65%</t>
-  </si>
-  <si>
-    <t>87,44%</t>
-  </si>
-  <si>
-    <t>83,5%</t>
-  </si>
-  <si>
-    <t>90,54%</t>
-  </si>
-  <si>
-    <t>34,46%</t>
-  </si>
-  <si>
-    <t>28,54%</t>
-  </si>
-  <si>
-    <t>40,97%</t>
-  </si>
-  <si>
-    <t>66,18%</t>
-  </si>
-  <si>
-    <t>62,35%</t>
-  </si>
-  <si>
-    <t>69,79%</t>
-  </si>
-  <si>
-    <t>10,66%</t>
-  </si>
-  <si>
-    <t>7,18%</t>
-  </si>
-  <si>
-    <t>15,52%</t>
-  </si>
-  <si>
-    <t>68,25%</t>
-  </si>
-  <si>
-    <t>61,17%</t>
-  </si>
-  <si>
-    <t>75,29%</t>
-  </si>
-  <si>
-    <t>33,49%</t>
-  </si>
-  <si>
-    <t>28,97%</t>
-  </si>
-  <si>
-    <t>38,08%</t>
-  </si>
-  <si>
-    <t>89,34%</t>
-  </si>
-  <si>
-    <t>84,48%</t>
-  </si>
-  <si>
-    <t>92,82%</t>
-  </si>
-  <si>
-    <t>31,75%</t>
-  </si>
-  <si>
-    <t>24,71%</t>
-  </si>
-  <si>
-    <t>38,83%</t>
-  </si>
-  <si>
-    <t>66,51%</t>
-  </si>
-  <si>
-    <t>61,92%</t>
-  </si>
-  <si>
-    <t>71,03%</t>
-  </si>
-  <si>
-    <t>11,37%</t>
-  </si>
-  <si>
-    <t>8,0%</t>
-  </si>
-  <si>
-    <t>15,13%</t>
-  </si>
-  <si>
-    <t>76,76%</t>
-  </si>
-  <si>
-    <t>70,8%</t>
-  </si>
-  <si>
-    <t>81,55%</t>
-  </si>
-  <si>
-    <t>38,18%</t>
-  </si>
-  <si>
-    <t>34,33%</t>
-  </si>
-  <si>
-    <t>42,51%</t>
-  </si>
-  <si>
-    <t>88,63%</t>
-  </si>
-  <si>
-    <t>84,87%</t>
-  </si>
-  <si>
-    <t>92,0%</t>
-  </si>
-  <si>
-    <t>23,24%</t>
-  </si>
-  <si>
-    <t>18,45%</t>
-  </si>
-  <si>
-    <t>29,2%</t>
-  </si>
-  <si>
-    <t>61,82%</t>
-  </si>
-  <si>
-    <t>57,49%</t>
-  </si>
-  <si>
-    <t>65,67%</t>
-  </si>
-  <si>
-    <t>12,57%</t>
-  </si>
-  <si>
-    <t>10,75%</t>
-  </si>
-  <si>
-    <t>14,57%</t>
-  </si>
-  <si>
-    <t>68,1%</t>
-  </si>
-  <si>
-    <t>64,96%</t>
-  </si>
-  <si>
-    <t>71,07%</t>
-  </si>
-  <si>
-    <t>34,81%</t>
-  </si>
-  <si>
-    <t>32,8%</t>
-  </si>
-  <si>
-    <t>36,85%</t>
-  </si>
-  <si>
-    <t>87,43%</t>
-  </si>
-  <si>
-    <t>85,43%</t>
-  </si>
-  <si>
-    <t>89,25%</t>
-  </si>
-  <si>
-    <t>31,9%</t>
-  </si>
-  <si>
-    <t>28,93%</t>
-  </si>
-  <si>
-    <t>35,04%</t>
-  </si>
-  <si>
-    <t>65,19%</t>
-  </si>
-  <si>
-    <t>63,15%</t>
-  </si>
-  <si>
-    <t>67,2%</t>
-  </si>
-  <si>
-    <t>Población según si su pareja percibe algún tipo de pensión en 2015 (Tasa respuesta: 32,32%)</t>
-  </si>
-  <si>
-    <t>19,47%</t>
-  </si>
-  <si>
-    <t>10,62%</t>
-  </si>
-  <si>
-    <t>33,9%</t>
-  </si>
-  <si>
-    <t>68,59%</t>
-  </si>
-  <si>
-    <t>49,78%</t>
-  </si>
-  <si>
-    <t>82,96%</t>
-  </si>
-  <si>
-    <t>40,19%</t>
-  </si>
-  <si>
-    <t>29,23%</t>
-  </si>
-  <si>
-    <t>51,52%</t>
-  </si>
-  <si>
-    <t>80,53%</t>
-  </si>
-  <si>
-    <t>66,1%</t>
-  </si>
-  <si>
-    <t>89,38%</t>
-  </si>
-  <si>
-    <t>31,41%</t>
-  </si>
-  <si>
-    <t>17,04%</t>
-  </si>
-  <si>
-    <t>50,22%</t>
-  </si>
-  <si>
-    <t>59,81%</t>
-  </si>
-  <si>
-    <t>48,48%</t>
-  </si>
-  <si>
-    <t>70,77%</t>
-  </si>
-  <si>
-    <t>9,85%</t>
-  </si>
-  <si>
-    <t>6,59%</t>
-  </si>
-  <si>
-    <t>14,29%</t>
-  </si>
-  <si>
-    <t>66,53%</t>
-  </si>
-  <si>
-    <t>59,0%</t>
-  </si>
-  <si>
-    <t>73,11%</t>
-  </si>
-  <si>
-    <t>33,35%</t>
-  </si>
-  <si>
-    <t>28,46%</t>
-  </si>
-  <si>
-    <t>38,3%</t>
-  </si>
-  <si>
-    <t>90,15%</t>
-  </si>
-  <si>
-    <t>85,71%</t>
-  </si>
-  <si>
-    <t>93,41%</t>
-  </si>
-  <si>
-    <t>33,47%</t>
-  </si>
-  <si>
-    <t>26,89%</t>
-  </si>
-  <si>
-    <t>41,0%</t>
-  </si>
-  <si>
-    <t>66,65%</t>
-  </si>
-  <si>
-    <t>61,7%</t>
-  </si>
-  <si>
-    <t>71,54%</t>
-  </si>
-  <si>
-    <t>13,35%</t>
-  </si>
-  <si>
-    <t>10,22%</t>
-  </si>
-  <si>
-    <t>17,18%</t>
-  </si>
-  <si>
-    <t>64,2%</t>
-  </si>
-  <si>
-    <t>58,53%</t>
-  </si>
-  <si>
-    <t>70,66%</t>
-  </si>
-  <si>
-    <t>34,44%</t>
-  </si>
-  <si>
-    <t>30,82%</t>
-  </si>
-  <si>
-    <t>38,13%</t>
-  </si>
-  <si>
-    <t>86,65%</t>
-  </si>
-  <si>
-    <t>82,82%</t>
-  </si>
-  <si>
-    <t>89,78%</t>
-  </si>
-  <si>
-    <t>35,8%</t>
-  </si>
-  <si>
-    <t>29,34%</t>
-  </si>
-  <si>
-    <t>41,47%</t>
-  </si>
-  <si>
-    <t>65,56%</t>
-  </si>
-  <si>
-    <t>61,87%</t>
-  </si>
-  <si>
-    <t>69,18%</t>
-  </si>
-  <si>
-    <t>5,38%</t>
-  </si>
-  <si>
-    <t>11,42%</t>
-  </si>
-  <si>
-    <t>63,01%</t>
-  </si>
-  <si>
-    <t>55,73%</t>
-  </si>
-  <si>
-    <t>70,02%</t>
-  </si>
-  <si>
-    <t>28,99%</t>
-  </si>
-  <si>
-    <t>24,76%</t>
-  </si>
-  <si>
-    <t>33,1%</t>
-  </si>
-  <si>
-    <t>88,58%</t>
-  </si>
-  <si>
-    <t>94,62%</t>
+    <t>88,45%</t>
+  </si>
+  <si>
+    <t>94,77%</t>
   </si>
   <si>
     <t>36,99%</t>
   </si>
   <si>
-    <t>29,98%</t>
-  </si>
-  <si>
-    <t>44,27%</t>
+    <t>30,11%</t>
+  </si>
+  <si>
+    <t>43,94%</t>
   </si>
   <si>
     <t>71,01%</t>
   </si>
   <si>
-    <t>66,9%</t>
-  </si>
-  <si>
-    <t>75,24%</t>
+    <t>66,79%</t>
+  </si>
+  <si>
+    <t>75,11%</t>
   </si>
   <si>
     <t>16,32%</t>
   </si>
   <si>
-    <t>12,67%</t>
-  </si>
-  <si>
-    <t>20,01%</t>
+    <t>12,83%</t>
+  </si>
+  <si>
+    <t>20,25%</t>
   </si>
   <si>
     <t>70,82%</t>
   </si>
   <si>
-    <t>76,95%</t>
+    <t>64,1%</t>
+  </si>
+  <si>
+    <t>77,59%</t>
   </si>
   <si>
     <t>36,79%</t>
   </si>
   <si>
-    <t>32,75%</t>
+    <t>32,57%</t>
   </si>
   <si>
     <t>41,03%</t>
@@ -979,16 +976,19 @@
     <t>83,68%</t>
   </si>
   <si>
-    <t>79,99%</t>
-  </si>
-  <si>
-    <t>87,33%</t>
+    <t>79,75%</t>
+  </si>
+  <si>
+    <t>87,17%</t>
   </si>
   <si>
     <t>29,18%</t>
   </si>
   <si>
-    <t>23,05%</t>
+    <t>22,41%</t>
+  </si>
+  <si>
+    <t>35,9%</t>
   </si>
   <si>
     <t>63,21%</t>
@@ -997,61 +997,55 @@
     <t>58,97%</t>
   </si>
   <si>
-    <t>67,25%</t>
+    <t>67,43%</t>
   </si>
   <si>
     <t>12,45%</t>
   </si>
   <si>
-    <t>10,76%</t>
-  </si>
-  <si>
-    <t>14,39%</t>
+    <t>10,8%</t>
+  </si>
+  <si>
+    <t>14,44%</t>
   </si>
   <si>
     <t>66,14%</t>
   </si>
   <si>
-    <t>62,85%</t>
-  </si>
-  <si>
-    <t>69,61%</t>
+    <t>62,84%</t>
+  </si>
+  <si>
+    <t>69,56%</t>
   </si>
   <si>
     <t>33,8%</t>
   </si>
   <si>
-    <t>31,73%</t>
-  </si>
-  <si>
-    <t>35,65%</t>
+    <t>35,77%</t>
   </si>
   <si>
     <t>87,55%</t>
   </si>
   <si>
-    <t>85,61%</t>
-  </si>
-  <si>
-    <t>89,24%</t>
+    <t>85,56%</t>
+  </si>
+  <si>
+    <t>89,2%</t>
   </si>
   <si>
     <t>33,86%</t>
   </si>
   <si>
-    <t>30,39%</t>
-  </si>
-  <si>
-    <t>37,15%</t>
+    <t>30,44%</t>
+  </si>
+  <si>
+    <t>37,16%</t>
   </si>
   <si>
     <t>66,2%</t>
   </si>
   <si>
-    <t>64,35%</t>
-  </si>
-  <si>
-    <t>68,27%</t>
+    <t>64,23%</t>
   </si>
 </sst>
 </file>
@@ -1463,7 +1457,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E6E6866-3C5A-4567-A56A-3870CDEBF47D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{423DC66B-84D7-4D8B-82B1-0A49657B01BB}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2222,13 +2216,13 @@
         <v>144720</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="K16" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>93</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>94</v>
       </c>
       <c r="M16" s="7">
         <v>171</v>
@@ -2237,13 +2231,13 @@
         <v>171781</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="P16" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="P16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>96</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2258,13 +2252,13 @@
         <v>314030</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="G17" s="7" t="s">
         <v>99</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>100</v>
       </c>
       <c r="H17" s="7">
         <v>33</v>
@@ -2273,13 +2267,13 @@
         <v>34588</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>101</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>103</v>
       </c>
       <c r="M17" s="7">
         <v>372</v>
@@ -2288,13 +2282,13 @@
         <v>348618</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>104</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2362,13 +2356,13 @@
         <v>107100</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>107</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>109</v>
       </c>
       <c r="H19" s="7">
         <v>505</v>
@@ -2377,13 +2371,13 @@
         <v>507414</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="L19" s="7" t="s">
         <v>110</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>112</v>
       </c>
       <c r="M19" s="7">
         <v>613</v>
@@ -2392,13 +2386,13 @@
         <v>614514</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="Q19" s="7" t="s">
         <v>113</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2413,13 +2407,13 @@
         <v>1308412</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="G20" s="7" t="s">
         <v>116</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>118</v>
       </c>
       <c r="H20" s="7">
         <v>103</v>
@@ -2428,13 +2422,13 @@
         <v>104662</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>119</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>121</v>
       </c>
       <c r="M20" s="7">
         <v>1399</v>
@@ -2443,13 +2437,13 @@
         <v>1413074</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>122</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2505,7 +2499,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
   </sheetData>
@@ -2526,7 +2520,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2547259A-684A-4795-BB99-DE821315AC13}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{371D4A50-11F9-4EBE-B776-19E999C71D58}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2543,7 +2537,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2650,13 +2644,13 @@
         <v>7189</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="G4" s="7" t="s">
         <v>127</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>128</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>18</v>
       </c>
       <c r="H4" s="7">
         <v>21</v>
@@ -2665,13 +2659,13 @@
         <v>22533</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="K4" s="7" t="s">
         <v>129</v>
       </c>
-      <c r="K4" s="7" t="s">
+      <c r="L4" s="7" t="s">
         <v>130</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>131</v>
       </c>
       <c r="M4" s="7">
         <v>29</v>
@@ -2680,13 +2674,13 @@
         <v>29722</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="P4" s="7" t="s">
         <v>132</v>
       </c>
-      <c r="P4" s="7" t="s">
+      <c r="Q4" s="7" t="s">
         <v>133</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2701,10 +2695,10 @@
         <v>36890</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="F5" s="7" t="s">
         <v>135</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>29</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>136</v>
@@ -3136,7 +3130,7 @@
         <v>183</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>184</v>
+        <v>85</v>
       </c>
       <c r="M13" s="7">
         <v>145</v>
@@ -3145,13 +3139,13 @@
         <v>163841</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="P13" s="7" t="s">
         <v>185</v>
       </c>
-      <c r="P13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>186</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>187</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3166,13 +3160,13 @@
         <v>263868</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>188</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="G14" s="7" t="s">
         <v>189</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>190</v>
       </c>
       <c r="H14" s="7">
         <v>58</v>
@@ -3181,13 +3175,13 @@
         <v>61577</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>191</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>192</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>193</v>
       </c>
       <c r="M14" s="7">
         <v>298</v>
@@ -3196,13 +3190,13 @@
         <v>325445</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>194</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>195</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>196</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3270,13 +3264,13 @@
         <v>41352</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>197</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>198</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>199</v>
       </c>
       <c r="H16" s="7">
         <v>183</v>
@@ -3285,13 +3279,13 @@
         <v>194046</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>200</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>201</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>202</v>
       </c>
       <c r="M16" s="7">
         <v>220</v>
@@ -3300,13 +3294,13 @@
         <v>235398</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>203</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>204</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>205</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3321,13 +3315,13 @@
         <v>322418</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>206</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>207</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>208</v>
       </c>
       <c r="H17" s="7">
         <v>55</v>
@@ -3336,13 +3330,13 @@
         <v>58749</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>209</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>210</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>211</v>
       </c>
       <c r="M17" s="7">
         <v>363</v>
@@ -3351,13 +3345,13 @@
         <v>381168</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>212</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>213</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>214</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3425,13 +3419,13 @@
         <v>172865</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>216</v>
+        <v>179</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="H19" s="7">
         <v>574</v>
@@ -3440,13 +3434,13 @@
         <v>625640</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="M19" s="7">
         <v>726</v>
@@ -3455,13 +3449,13 @@
         <v>798505</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3476,13 +3470,13 @@
         <v>1202484</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>226</v>
+        <v>187</v>
       </c>
       <c r="H20" s="7">
         <v>270</v>
@@ -3491,13 +3485,13 @@
         <v>293051</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="M20" s="7">
         <v>1396</v>
@@ -3506,13 +3500,13 @@
         <v>1495535</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3568,7 +3562,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
   </sheetData>
@@ -3589,7 +3583,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D5ADD63-2089-4C49-B007-D0903F99F6CE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3BEC076D-B3A9-4591-B802-BF8289A4A7CC}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3606,7 +3600,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3713,13 +3707,13 @@
         <v>9011</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="H4" s="7">
         <v>22</v>
@@ -3728,13 +3722,13 @@
         <v>23174</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="M4" s="7">
         <v>31</v>
@@ -3743,13 +3737,13 @@
         <v>32185</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3764,13 +3758,13 @@
         <v>37275</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="H5" s="7">
         <v>10</v>
@@ -3779,13 +3773,13 @@
         <v>10615</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="M5" s="7">
         <v>46</v>
@@ -3794,13 +3788,13 @@
         <v>47889</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3868,13 +3862,13 @@
         <v>23533</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="H7" s="7">
         <v>105</v>
@@ -3883,13 +3877,13 @@
         <v>112496</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="M7" s="7">
         <v>130</v>
@@ -3898,13 +3892,13 @@
         <v>136029</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3919,13 +3913,13 @@
         <v>215262</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="H8" s="7">
         <v>58</v>
@@ -3934,13 +3928,13 @@
         <v>56582</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="M8" s="7">
         <v>265</v>
@@ -3949,13 +3943,13 @@
         <v>271844</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4023,13 +4017,13 @@
         <v>52771</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="H10" s="7">
         <v>153</v>
@@ -4038,28 +4032,28 @@
         <v>179883</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="M10" s="7">
         <v>202</v>
       </c>
       <c r="N10" s="7">
-        <v>232655</v>
+        <v>232654</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4074,13 +4068,13 @@
         <v>342487</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="H11" s="7">
         <v>95</v>
@@ -4089,13 +4083,13 @@
         <v>100308</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="M11" s="7">
         <v>413</v>
@@ -4104,13 +4098,13 @@
         <v>442795</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4152,7 +4146,7 @@
         <v>615</v>
       </c>
       <c r="N12" s="7">
-        <v>675450</v>
+        <v>675449</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -4178,13 +4172,13 @@
         <v>25159</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>128</v>
+        <v>284</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="H13" s="7">
         <v>108</v>
@@ -4193,13 +4187,13 @@
         <v>124358</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="M13" s="7">
         <v>133</v>
@@ -4208,13 +4202,13 @@
         <v>149517</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4229,13 +4223,13 @@
         <v>293188</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>136</v>
+        <v>293</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="H14" s="7">
         <v>71</v>
@@ -4244,13 +4238,13 @@
         <v>72992</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>296</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>297</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>298</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>299</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>300</v>
       </c>
       <c r="M14" s="7">
         <v>343</v>
@@ -4259,13 +4253,13 @@
         <v>366180</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>299</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>300</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>301</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>302</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>303</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4333,13 +4327,13 @@
         <v>58611</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>302</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>303</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>304</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>305</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>306</v>
       </c>
       <c r="H16" s="7">
         <v>133</v>
@@ -4348,13 +4342,13 @@
         <v>152963</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>305</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>306</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>307</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>273</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>308</v>
       </c>
       <c r="M16" s="7">
         <v>194</v>
@@ -4363,13 +4357,13 @@
         <v>211573</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>308</v>
+      </c>
+      <c r="P16" s="7" t="s">
         <v>309</v>
       </c>
-      <c r="P16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>310</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>311</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4384,13 +4378,13 @@
         <v>300543</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>311</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>312</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="G17" s="7" t="s">
         <v>313</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>314</v>
       </c>
       <c r="H17" s="7">
         <v>58</v>
@@ -4399,13 +4393,13 @@
         <v>63026</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>314</v>
+      </c>
+      <c r="K17" s="7" t="s">
         <v>315</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>316</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>282</v>
       </c>
       <c r="M17" s="7">
         <v>366</v>
@@ -4521,10 +4515,10 @@
         <v>326</v>
       </c>
       <c r="P19" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="Q19" s="7" t="s">
         <v>327</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>328</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4539,13 +4533,13 @@
         <v>1188754</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>328</v>
+      </c>
+      <c r="F20" s="7" t="s">
         <v>329</v>
       </c>
-      <c r="F20" s="7" t="s">
+      <c r="G20" s="7" t="s">
         <v>330</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>331</v>
       </c>
       <c r="H20" s="7">
         <v>292</v>
@@ -4554,13 +4548,13 @@
         <v>303524</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>331</v>
+      </c>
+      <c r="K20" s="7" t="s">
         <v>332</v>
       </c>
-      <c r="K20" s="7" t="s">
+      <c r="L20" s="7" t="s">
         <v>333</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>334</v>
       </c>
       <c r="M20" s="7">
         <v>1433</v>
@@ -4569,13 +4563,13 @@
         <v>1492279</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>334</v>
+      </c>
+      <c r="P20" s="7" t="s">
         <v>335</v>
       </c>
-      <c r="P20" s="7" t="s">
-        <v>336</v>
-      </c>
       <c r="Q20" s="7" t="s">
-        <v>337</v>
+        <v>182</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4631,7 +4625,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P74B-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P74B-Habitat-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{670A7575-BD92-4914-BA9E-B37C0B657B39}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{5864BFFF-9C16-4505-98D2-2EE90232984B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{9659C4E7-C526-4174-B7CE-2D85BC470748}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{795926DB-AE36-4E92-8BCB-C138CE281421}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="618" uniqueCount="336">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="618" uniqueCount="340">
   <si>
     <t>Población según si su pareja percibe algún tipo de pensión en 2007 (Tasa respuesta: 30,9%)</t>
   </si>
@@ -67,7 +67,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>Menos de 2</t>
+    <t>&lt;2.000hab</t>
   </si>
   <si>
     <t>Sí</t>
@@ -76,28 +76,28 @@
     <t>16,07%</t>
   </si>
   <si>
-    <t>8,81%</t>
-  </si>
-  <si>
-    <t>27,21%</t>
+    <t>7,17%</t>
+  </si>
+  <si>
+    <t>26,91%</t>
   </si>
   <si>
     <t>75,91%</t>
   </si>
   <si>
-    <t>60,08%</t>
-  </si>
-  <si>
-    <t>88,68%</t>
+    <t>61,66%</t>
+  </si>
+  <si>
+    <t>87,01%</t>
   </si>
   <si>
     <t>37,31%</t>
   </si>
   <si>
-    <t>27,92%</t>
-  </si>
-  <si>
-    <t>47,49%</t>
+    <t>27,13%</t>
+  </si>
+  <si>
+    <t>46,82%</t>
   </si>
   <si>
     <t>No</t>
@@ -106,34 +106,34 @@
     <t>83,93%</t>
   </si>
   <si>
-    <t>72,79%</t>
-  </si>
-  <si>
-    <t>91,19%</t>
+    <t>73,09%</t>
+  </si>
+  <si>
+    <t>92,83%</t>
   </si>
   <si>
     <t>24,09%</t>
   </si>
   <si>
-    <t>11,32%</t>
-  </si>
-  <si>
-    <t>39,92%</t>
+    <t>12,99%</t>
+  </si>
+  <si>
+    <t>38,34%</t>
   </si>
   <si>
     <t>62,69%</t>
   </si>
   <si>
-    <t>52,51%</t>
-  </si>
-  <si>
-    <t>72,08%</t>
+    <t>53,18%</t>
+  </si>
+  <si>
+    <t>72,87%</t>
   </si>
   <si>
     <t>100%</t>
   </si>
   <si>
-    <t>2/10</t>
+    <t>2-10.000 hab</t>
   </si>
   <si>
     <t>7,35%</t>
@@ -142,271 +142,277 @@
     <t>4,58%</t>
   </si>
   <si>
-    <t>11,06%</t>
+    <t>10,56%</t>
   </si>
   <si>
     <t>87,96%</t>
   </si>
   <si>
+    <t>80,14%</t>
+  </si>
+  <si>
+    <t>92,77%</t>
+  </si>
+  <si>
+    <t>31,33%</t>
+  </si>
+  <si>
+    <t>26,8%</t>
+  </si>
+  <si>
+    <t>36,38%</t>
+  </si>
+  <si>
+    <t>92,65%</t>
+  </si>
+  <si>
+    <t>89,44%</t>
+  </si>
+  <si>
+    <t>95,42%</t>
+  </si>
+  <si>
+    <t>12,04%</t>
+  </si>
+  <si>
+    <t>7,23%</t>
+  </si>
+  <si>
+    <t>19,86%</t>
+  </si>
+  <si>
+    <t>68,67%</t>
+  </si>
+  <si>
+    <t>63,62%</t>
+  </si>
+  <si>
+    <t>73,2%</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
+  </si>
+  <si>
+    <t>8,17%</t>
+  </si>
+  <si>
+    <t>5,76%</t>
+  </si>
+  <si>
+    <t>11,13%</t>
+  </si>
+  <si>
+    <t>85,7%</t>
+  </si>
+  <si>
+    <t>79,16%</t>
+  </si>
+  <si>
+    <t>90,51%</t>
+  </si>
+  <si>
+    <t>29,64%</t>
+  </si>
+  <si>
+    <t>26,13%</t>
+  </si>
+  <si>
+    <t>33,45%</t>
+  </si>
+  <si>
+    <t>91,83%</t>
+  </si>
+  <si>
+    <t>88,87%</t>
+  </si>
+  <si>
+    <t>94,24%</t>
+  </si>
+  <si>
+    <t>14,3%</t>
+  </si>
+  <si>
+    <t>9,49%</t>
+  </si>
+  <si>
+    <t>20,84%</t>
+  </si>
+  <si>
+    <t>70,36%</t>
+  </si>
+  <si>
+    <t>66,55%</t>
+  </si>
+  <si>
+    <t>73,87%</t>
+  </si>
+  <si>
+    <t>&gt;50.000hab</t>
+  </si>
+  <si>
+    <t>4,95%</t>
+  </si>
+  <si>
+    <t>2,96%</t>
+  </si>
+  <si>
+    <t>7,79%</t>
+  </si>
+  <si>
+    <t>79,47%</t>
+  </si>
+  <si>
+    <t>71,49%</t>
+  </si>
+  <si>
+    <t>85,85%</t>
+  </si>
+  <si>
+    <t>25,67%</t>
+  </si>
+  <si>
+    <t>22,06%</t>
+  </si>
+  <si>
+    <t>30,14%</t>
+  </si>
+  <si>
+    <t>95,05%</t>
+  </si>
+  <si>
+    <t>92,21%</t>
+  </si>
+  <si>
+    <t>97,04%</t>
+  </si>
+  <si>
+    <t>20,53%</t>
+  </si>
+  <si>
+    <t>14,15%</t>
+  </si>
+  <si>
+    <t>28,51%</t>
+  </si>
+  <si>
+    <t>74,33%</t>
+  </si>
+  <si>
+    <t>69,86%</t>
+  </si>
+  <si>
+    <t>77,94%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>7,93%</t>
+  </si>
+  <si>
+    <t>5,1%</t>
+  </si>
+  <si>
+    <t>10,95%</t>
+  </si>
+  <si>
     <t>80,71%</t>
   </si>
   <si>
+    <t>74,46%</t>
+  </si>
+  <si>
+    <t>86,24%</t>
+  </si>
+  <si>
+    <t>33,01%</t>
+  </si>
+  <si>
+    <t>29,14%</t>
+  </si>
+  <si>
+    <t>37,25%</t>
+  </si>
+  <si>
+    <t>92,07%</t>
+  </si>
+  <si>
+    <t>89,05%</t>
+  </si>
+  <si>
+    <t>94,9%</t>
+  </si>
+  <si>
+    <t>19,29%</t>
+  </si>
+  <si>
+    <t>13,76%</t>
+  </si>
+  <si>
+    <t>25,54%</t>
+  </si>
+  <si>
+    <t>66,99%</t>
+  </si>
+  <si>
+    <t>62,75%</t>
+  </si>
+  <si>
+    <t>70,86%</t>
+  </si>
+  <si>
+    <t>7,57%</t>
+  </si>
+  <si>
+    <t>6,29%</t>
+  </si>
+  <si>
+    <t>9,02%</t>
+  </si>
+  <si>
+    <t>82,9%</t>
+  </si>
+  <si>
+    <t>79,82%</t>
+  </si>
+  <si>
+    <t>85,66%</t>
+  </si>
+  <si>
+    <t>30,31%</t>
+  </si>
+  <si>
+    <t>28,28%</t>
+  </si>
+  <si>
+    <t>32,29%</t>
+  </si>
+  <si>
+    <t>92,43%</t>
+  </si>
+  <si>
+    <t>90,98%</t>
+  </si>
+  <si>
     <t>93,71%</t>
   </si>
   <si>
-    <t>31,33%</t>
-  </si>
-  <si>
-    <t>26,6%</t>
-  </si>
-  <si>
-    <t>35,92%</t>
-  </si>
-  <si>
-    <t>92,65%</t>
-  </si>
-  <si>
-    <t>88,94%</t>
-  </si>
-  <si>
-    <t>95,42%</t>
-  </si>
-  <si>
-    <t>12,04%</t>
-  </si>
-  <si>
-    <t>6,29%</t>
-  </si>
-  <si>
-    <t>19,29%</t>
-  </si>
-  <si>
-    <t>68,67%</t>
-  </si>
-  <si>
-    <t>64,08%</t>
-  </si>
-  <si>
-    <t>73,4%</t>
-  </si>
-  <si>
-    <t>10/50</t>
-  </si>
-  <si>
-    <t>8,17%</t>
-  </si>
-  <si>
-    <t>5,92%</t>
-  </si>
-  <si>
-    <t>11,26%</t>
-  </si>
-  <si>
-    <t>85,7%</t>
-  </si>
-  <si>
-    <t>79,63%</t>
-  </si>
-  <si>
-    <t>90,73%</t>
-  </si>
-  <si>
-    <t>29,64%</t>
-  </si>
-  <si>
-    <t>25,99%</t>
-  </si>
-  <si>
-    <t>33,63%</t>
-  </si>
-  <si>
-    <t>91,83%</t>
-  </si>
-  <si>
-    <t>88,74%</t>
-  </si>
-  <si>
-    <t>94,08%</t>
-  </si>
-  <si>
-    <t>14,3%</t>
-  </si>
-  <si>
-    <t>9,27%</t>
-  </si>
-  <si>
-    <t>20,37%</t>
-  </si>
-  <si>
-    <t>70,36%</t>
-  </si>
-  <si>
-    <t>66,37%</t>
-  </si>
-  <si>
-    <t>74,01%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
-  </si>
-  <si>
-    <t>4,95%</t>
-  </si>
-  <si>
-    <t>2,95%</t>
-  </si>
-  <si>
-    <t>8,13%</t>
-  </si>
-  <si>
-    <t>79,47%</t>
-  </si>
-  <si>
-    <t>72,25%</t>
-  </si>
-  <si>
-    <t>85,71%</t>
-  </si>
-  <si>
-    <t>25,67%</t>
-  </si>
-  <si>
-    <t>21,86%</t>
-  </si>
-  <si>
-    <t>29,93%</t>
-  </si>
-  <si>
-    <t>95,05%</t>
-  </si>
-  <si>
-    <t>91,87%</t>
-  </si>
-  <si>
-    <t>97,05%</t>
-  </si>
-  <si>
-    <t>20,53%</t>
-  </si>
-  <si>
-    <t>14,29%</t>
-  </si>
-  <si>
-    <t>27,75%</t>
-  </si>
-  <si>
-    <t>74,33%</t>
-  </si>
-  <si>
-    <t>70,07%</t>
-  </si>
-  <si>
-    <t>78,14%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>7,93%</t>
-  </si>
-  <si>
-    <t>5,36%</t>
-  </si>
-  <si>
-    <t>11,18%</t>
-  </si>
-  <si>
-    <t>74,26%</t>
-  </si>
-  <si>
-    <t>86,26%</t>
-  </si>
-  <si>
-    <t>33,01%</t>
-  </si>
-  <si>
-    <t>29,38%</t>
-  </si>
-  <si>
-    <t>37,52%</t>
-  </si>
-  <si>
-    <t>92,07%</t>
-  </si>
-  <si>
-    <t>88,82%</t>
-  </si>
-  <si>
-    <t>94,64%</t>
-  </si>
-  <si>
-    <t>13,74%</t>
-  </si>
-  <si>
-    <t>25,74%</t>
-  </si>
-  <si>
-    <t>66,99%</t>
-  </si>
-  <si>
-    <t>62,48%</t>
-  </si>
-  <si>
-    <t>70,62%</t>
-  </si>
-  <si>
-    <t>7,57%</t>
-  </si>
-  <si>
-    <t>6,15%</t>
-  </si>
-  <si>
-    <t>8,98%</t>
-  </si>
-  <si>
-    <t>82,9%</t>
-  </si>
-  <si>
-    <t>79,86%</t>
-  </si>
-  <si>
-    <t>85,86%</t>
-  </si>
-  <si>
-    <t>30,31%</t>
-  </si>
-  <si>
-    <t>28,31%</t>
-  </si>
-  <si>
-    <t>32,35%</t>
-  </si>
-  <si>
-    <t>92,43%</t>
-  </si>
-  <si>
-    <t>91,02%</t>
-  </si>
-  <si>
-    <t>93,85%</t>
-  </si>
-  <si>
     <t>17,1%</t>
   </si>
   <si>
-    <t>14,14%</t>
-  </si>
-  <si>
-    <t>20,14%</t>
+    <t>14,34%</t>
+  </si>
+  <si>
+    <t>20,18%</t>
   </si>
   <si>
     <t>69,69%</t>
   </si>
   <si>
-    <t>67,65%</t>
-  </si>
-  <si>
-    <t>71,69%</t>
+    <t>67,71%</t>
+  </si>
+  <si>
+    <t>71,72%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -418,634 +424,640 @@
     <t>16,31%</t>
   </si>
   <si>
-    <t>6,47%</t>
-  </si>
-  <si>
-    <t>28,49%</t>
+    <t>7,82%</t>
+  </si>
+  <si>
+    <t>28,0%</t>
   </si>
   <si>
     <t>77,8%</t>
   </si>
   <si>
-    <t>58,96%</t>
-  </si>
-  <si>
-    <t>89,42%</t>
+    <t>59,33%</t>
+  </si>
+  <si>
+    <t>92,4%</t>
   </si>
   <si>
     <t>40,69%</t>
   </si>
   <si>
-    <t>28,9%</t>
-  </si>
-  <si>
-    <t>52,41%</t>
+    <t>28,89%</t>
+  </si>
+  <si>
+    <t>51,74%</t>
   </si>
   <si>
     <t>83,69%</t>
   </si>
   <si>
-    <t>71,51%</t>
-  </si>
-  <si>
-    <t>93,53%</t>
+    <t>72,0%</t>
+  </si>
+  <si>
+    <t>92,18%</t>
   </si>
   <si>
     <t>22,2%</t>
   </si>
   <si>
-    <t>10,58%</t>
-  </si>
-  <si>
-    <t>41,04%</t>
+    <t>7,6%</t>
+  </si>
+  <si>
+    <t>40,67%</t>
   </si>
   <si>
     <t>59,31%</t>
   </si>
   <si>
-    <t>47,59%</t>
-  </si>
-  <si>
-    <t>71,1%</t>
+    <t>48,26%</t>
+  </si>
+  <si>
+    <t>71,11%</t>
   </si>
   <si>
     <t>15,84%</t>
   </si>
   <si>
-    <t>11,61%</t>
-  </si>
-  <si>
-    <t>21,27%</t>
+    <t>11,49%</t>
+  </si>
+  <si>
+    <t>20,45%</t>
   </si>
   <si>
     <t>57,25%</t>
   </si>
   <si>
-    <t>48,61%</t>
-  </si>
-  <si>
-    <t>64,38%</t>
+    <t>49,17%</t>
+  </si>
+  <si>
+    <t>64,82%</t>
   </si>
   <si>
     <t>32,02%</t>
   </si>
   <si>
-    <t>27,31%</t>
+    <t>26,84%</t>
+  </si>
+  <si>
+    <t>37,06%</t>
+  </si>
+  <si>
+    <t>84,16%</t>
+  </si>
+  <si>
+    <t>79,55%</t>
+  </si>
+  <si>
+    <t>88,51%</t>
+  </si>
+  <si>
+    <t>42,75%</t>
+  </si>
+  <si>
+    <t>35,18%</t>
+  </si>
+  <si>
+    <t>50,83%</t>
+  </si>
+  <si>
+    <t>67,98%</t>
+  </si>
+  <si>
+    <t>62,94%</t>
+  </si>
+  <si>
+    <t>73,16%</t>
+  </si>
+  <si>
+    <t>12,56%</t>
+  </si>
+  <si>
+    <t>16,28%</t>
+  </si>
+  <si>
+    <t>65,54%</t>
+  </si>
+  <si>
+    <t>59,29%</t>
+  </si>
+  <si>
+    <t>71,24%</t>
+  </si>
+  <si>
+    <t>33,82%</t>
+  </si>
+  <si>
+    <t>30,24%</t>
+  </si>
+  <si>
+    <t>37,26%</t>
+  </si>
+  <si>
+    <t>87,44%</t>
+  </si>
+  <si>
+    <t>83,72%</t>
+  </si>
+  <si>
+    <t>34,46%</t>
+  </si>
+  <si>
+    <t>28,76%</t>
+  </si>
+  <si>
+    <t>40,71%</t>
+  </si>
+  <si>
+    <t>66,18%</t>
+  </si>
+  <si>
+    <t>62,74%</t>
+  </si>
+  <si>
+    <t>69,76%</t>
+  </si>
+  <si>
+    <t>10,66%</t>
+  </si>
+  <si>
+    <t>7,34%</t>
+  </si>
+  <si>
+    <t>15,19%</t>
+  </si>
+  <si>
+    <t>68,25%</t>
+  </si>
+  <si>
+    <t>61,75%</t>
+  </si>
+  <si>
+    <t>75,04%</t>
+  </si>
+  <si>
+    <t>33,49%</t>
+  </si>
+  <si>
+    <t>28,95%</t>
+  </si>
+  <si>
+    <t>37,95%</t>
+  </si>
+  <si>
+    <t>89,34%</t>
+  </si>
+  <si>
+    <t>84,81%</t>
+  </si>
+  <si>
+    <t>92,66%</t>
+  </si>
+  <si>
+    <t>31,75%</t>
+  </si>
+  <si>
+    <t>24,96%</t>
+  </si>
+  <si>
+    <t>38,25%</t>
+  </si>
+  <si>
+    <t>66,51%</t>
+  </si>
+  <si>
+    <t>62,05%</t>
+  </si>
+  <si>
+    <t>71,05%</t>
+  </si>
+  <si>
+    <t>11,37%</t>
+  </si>
+  <si>
+    <t>8,29%</t>
+  </si>
+  <si>
+    <t>15,27%</t>
+  </si>
+  <si>
+    <t>76,76%</t>
+  </si>
+  <si>
+    <t>71,19%</t>
+  </si>
+  <si>
+    <t>82,3%</t>
+  </si>
+  <si>
+    <t>38,18%</t>
+  </si>
+  <si>
+    <t>34,36%</t>
+  </si>
+  <si>
+    <t>42,18%</t>
+  </si>
+  <si>
+    <t>88,63%</t>
+  </si>
+  <si>
+    <t>84,73%</t>
+  </si>
+  <si>
+    <t>91,71%</t>
+  </si>
+  <si>
+    <t>23,24%</t>
+  </si>
+  <si>
+    <t>17,7%</t>
+  </si>
+  <si>
+    <t>28,81%</t>
+  </si>
+  <si>
+    <t>61,82%</t>
+  </si>
+  <si>
+    <t>57,82%</t>
+  </si>
+  <si>
+    <t>65,64%</t>
+  </si>
+  <si>
+    <t>12,57%</t>
+  </si>
+  <si>
+    <t>14,66%</t>
+  </si>
+  <si>
+    <t>68,1%</t>
+  </si>
+  <si>
+    <t>65,09%</t>
+  </si>
+  <si>
+    <t>71,6%</t>
+  </si>
+  <si>
+    <t>34,81%</t>
+  </si>
+  <si>
+    <t>32,77%</t>
   </si>
   <si>
     <t>36,97%</t>
   </si>
   <si>
-    <t>84,16%</t>
-  </si>
-  <si>
-    <t>78,73%</t>
-  </si>
-  <si>
-    <t>88,39%</t>
-  </si>
-  <si>
-    <t>42,75%</t>
-  </si>
-  <si>
-    <t>35,62%</t>
-  </si>
-  <si>
-    <t>51,39%</t>
-  </si>
-  <si>
-    <t>67,98%</t>
+    <t>87,43%</t>
+  </si>
+  <si>
+    <t>85,34%</t>
+  </si>
+  <si>
+    <t>31,9%</t>
+  </si>
+  <si>
+    <t>28,4%</t>
+  </si>
+  <si>
+    <t>34,91%</t>
+  </si>
+  <si>
+    <t>65,19%</t>
   </si>
   <si>
     <t>63,03%</t>
   </si>
   <si>
-    <t>72,69%</t>
-  </si>
-  <si>
-    <t>12,56%</t>
-  </si>
-  <si>
-    <t>9,47%</t>
-  </si>
-  <si>
-    <t>16,6%</t>
-  </si>
-  <si>
-    <t>65,54%</t>
-  </si>
-  <si>
-    <t>58,93%</t>
-  </si>
-  <si>
-    <t>71,27%</t>
-  </si>
-  <si>
-    <t>33,82%</t>
-  </si>
-  <si>
-    <t>30,02%</t>
-  </si>
-  <si>
-    <t>37,56%</t>
-  </si>
-  <si>
-    <t>87,44%</t>
-  </si>
-  <si>
-    <t>83,4%</t>
-  </si>
-  <si>
-    <t>90,53%</t>
-  </si>
-  <si>
-    <t>34,46%</t>
-  </si>
-  <si>
-    <t>28,73%</t>
-  </si>
-  <si>
-    <t>41,07%</t>
-  </si>
-  <si>
-    <t>66,18%</t>
-  </si>
-  <si>
-    <t>62,44%</t>
-  </si>
-  <si>
-    <t>69,98%</t>
-  </si>
-  <si>
-    <t>10,66%</t>
-  </si>
-  <si>
-    <t>7,21%</t>
-  </si>
-  <si>
-    <t>15,03%</t>
-  </si>
-  <si>
-    <t>68,25%</t>
-  </si>
-  <si>
-    <t>61,12%</t>
-  </si>
-  <si>
-    <t>33,49%</t>
-  </si>
-  <si>
-    <t>28,98%</t>
-  </si>
-  <si>
-    <t>38,34%</t>
-  </si>
-  <si>
-    <t>89,34%</t>
-  </si>
-  <si>
-    <t>84,97%</t>
-  </si>
-  <si>
-    <t>92,79%</t>
-  </si>
-  <si>
-    <t>31,75%</t>
-  </si>
-  <si>
-    <t>38,88%</t>
-  </si>
-  <si>
-    <t>66,51%</t>
-  </si>
-  <si>
-    <t>61,66%</t>
-  </si>
-  <si>
-    <t>71,02%</t>
-  </si>
-  <si>
-    <t>11,37%</t>
-  </si>
-  <si>
-    <t>8,18%</t>
-  </si>
-  <si>
-    <t>15,56%</t>
-  </si>
-  <si>
-    <t>76,76%</t>
-  </si>
-  <si>
-    <t>70,89%</t>
-  </si>
-  <si>
-    <t>81,53%</t>
-  </si>
-  <si>
-    <t>38,18%</t>
-  </si>
-  <si>
-    <t>34,5%</t>
-  </si>
-  <si>
-    <t>42,46%</t>
-  </si>
-  <si>
-    <t>88,63%</t>
-  </si>
-  <si>
-    <t>84,44%</t>
-  </si>
-  <si>
-    <t>91,82%</t>
-  </si>
-  <si>
-    <t>23,24%</t>
-  </si>
-  <si>
-    <t>18,47%</t>
-  </si>
-  <si>
-    <t>29,11%</t>
-  </si>
-  <si>
-    <t>61,82%</t>
-  </si>
-  <si>
-    <t>57,54%</t>
-  </si>
-  <si>
-    <t>65,5%</t>
-  </si>
-  <si>
-    <t>12,57%</t>
-  </si>
-  <si>
-    <t>14,56%</t>
-  </si>
-  <si>
-    <t>68,1%</t>
-  </si>
-  <si>
-    <t>64,88%</t>
-  </si>
-  <si>
-    <t>71,28%</t>
-  </si>
-  <si>
-    <t>34,81%</t>
-  </si>
-  <si>
-    <t>32,77%</t>
-  </si>
-  <si>
-    <t>36,93%</t>
-  </si>
-  <si>
-    <t>87,43%</t>
-  </si>
-  <si>
-    <t>85,44%</t>
-  </si>
-  <si>
-    <t>31,9%</t>
-  </si>
-  <si>
-    <t>28,72%</t>
-  </si>
-  <si>
-    <t>35,12%</t>
-  </si>
-  <si>
-    <t>65,19%</t>
-  </si>
-  <si>
-    <t>63,07%</t>
-  </si>
-  <si>
     <t>67,23%</t>
   </si>
   <si>
-    <t>Población según si su pareja percibe algún tipo de pensión en 2015 (Tasa respuesta: 32,32%)</t>
+    <t>Población según si su pareja percibe algún tipo de pensión en 2016 (Tasa respuesta: 32,32%)</t>
   </si>
   <si>
     <t>19,47%</t>
   </si>
   <si>
-    <t>9,65%</t>
-  </si>
-  <si>
-    <t>33,24%</t>
+    <t>9,36%</t>
+  </si>
+  <si>
+    <t>33,83%</t>
   </si>
   <si>
     <t>68,59%</t>
   </si>
   <si>
-    <t>50,46%</t>
-  </si>
-  <si>
-    <t>83,96%</t>
+    <t>49,51%</t>
+  </si>
+  <si>
+    <t>83,43%</t>
   </si>
   <si>
     <t>40,19%</t>
   </si>
   <si>
-    <t>30,17%</t>
-  </si>
-  <si>
-    <t>52,05%</t>
+    <t>28,42%</t>
+  </si>
+  <si>
+    <t>52,03%</t>
   </si>
   <si>
     <t>80,53%</t>
   </si>
   <si>
-    <t>66,76%</t>
-  </si>
-  <si>
-    <t>90,35%</t>
+    <t>66,17%</t>
+  </si>
+  <si>
+    <t>90,64%</t>
   </si>
   <si>
     <t>31,41%</t>
   </si>
   <si>
-    <t>16,04%</t>
-  </si>
-  <si>
-    <t>49,54%</t>
+    <t>16,57%</t>
+  </si>
+  <si>
+    <t>50,49%</t>
   </si>
   <si>
     <t>59,81%</t>
   </si>
   <si>
-    <t>47,95%</t>
-  </si>
-  <si>
-    <t>69,83%</t>
+    <t>47,97%</t>
+  </si>
+  <si>
+    <t>71,58%</t>
   </si>
   <si>
     <t>9,85%</t>
   </si>
   <si>
-    <t>6,48%</t>
-  </si>
-  <si>
-    <t>14,27%</t>
+    <t>6,58%</t>
+  </si>
+  <si>
+    <t>14,4%</t>
   </si>
   <si>
     <t>66,53%</t>
   </si>
   <si>
-    <t>59,87%</t>
-  </si>
-  <si>
-    <t>73,71%</t>
+    <t>59,57%</t>
+  </si>
+  <si>
+    <t>73,56%</t>
   </si>
   <si>
     <t>33,35%</t>
   </si>
   <si>
-    <t>28,97%</t>
-  </si>
-  <si>
-    <t>38,48%</t>
+    <t>28,84%</t>
+  </si>
+  <si>
+    <t>37,8%</t>
   </si>
   <si>
     <t>90,15%</t>
   </si>
   <si>
-    <t>85,73%</t>
-  </si>
-  <si>
-    <t>93,52%</t>
+    <t>85,6%</t>
+  </si>
+  <si>
+    <t>93,42%</t>
   </si>
   <si>
     <t>33,47%</t>
   </si>
   <si>
-    <t>26,29%</t>
-  </si>
-  <si>
-    <t>40,13%</t>
+    <t>26,44%</t>
+  </si>
+  <si>
+    <t>40,43%</t>
   </si>
   <si>
     <t>66,65%</t>
   </si>
   <si>
-    <t>61,52%</t>
-  </si>
-  <si>
-    <t>71,03%</t>
+    <t>62,2%</t>
+  </si>
+  <si>
+    <t>71,16%</t>
   </si>
   <si>
     <t>13,35%</t>
   </si>
   <si>
-    <t>10,33%</t>
-  </si>
-  <si>
-    <t>17,55%</t>
+    <t>9,94%</t>
+  </si>
+  <si>
+    <t>17,43%</t>
   </si>
   <si>
     <t>64,2%</t>
   </si>
   <si>
-    <t>58,18%</t>
-  </si>
-  <si>
-    <t>69,96%</t>
+    <t>58,19%</t>
+  </si>
+  <si>
+    <t>70,19%</t>
   </si>
   <si>
     <t>34,44%</t>
   </si>
   <si>
-    <t>31,19%</t>
-  </si>
-  <si>
-    <t>38,56%</t>
+    <t>30,97%</t>
+  </si>
+  <si>
+    <t>38,66%</t>
   </si>
   <si>
     <t>86,65%</t>
   </si>
   <si>
-    <t>82,45%</t>
-  </si>
-  <si>
-    <t>89,67%</t>
+    <t>82,57%</t>
+  </si>
+  <si>
+    <t>90,06%</t>
   </si>
   <si>
     <t>35,8%</t>
   </si>
   <si>
-    <t>30,04%</t>
-  </si>
-  <si>
-    <t>41,82%</t>
+    <t>29,81%</t>
+  </si>
+  <si>
+    <t>41,81%</t>
   </si>
   <si>
     <t>65,56%</t>
   </si>
   <si>
-    <t>61,44%</t>
-  </si>
-  <si>
-    <t>68,81%</t>
+    <t>61,34%</t>
+  </si>
+  <si>
+    <t>69,03%</t>
   </si>
   <si>
     <t>7,9%</t>
   </si>
   <si>
-    <t>5,23%</t>
-  </si>
-  <si>
-    <t>11,55%</t>
+    <t>5,44%</t>
+  </si>
+  <si>
+    <t>11,57%</t>
   </si>
   <si>
     <t>63,01%</t>
   </si>
   <si>
-    <t>56,06%</t>
-  </si>
-  <si>
-    <t>69,89%</t>
+    <t>55,44%</t>
+  </si>
+  <si>
+    <t>70,09%</t>
   </si>
   <si>
     <t>28,99%</t>
   </si>
   <si>
-    <t>24,89%</t>
-  </si>
-  <si>
-    <t>33,21%</t>
+    <t>25,03%</t>
+  </si>
+  <si>
+    <t>33,46%</t>
   </si>
   <si>
     <t>92,1%</t>
   </si>
   <si>
-    <t>88,45%</t>
-  </si>
-  <si>
-    <t>94,77%</t>
+    <t>88,43%</t>
+  </si>
+  <si>
+    <t>94,56%</t>
   </si>
   <si>
     <t>36,99%</t>
   </si>
   <si>
-    <t>30,11%</t>
-  </si>
-  <si>
-    <t>43,94%</t>
+    <t>29,91%</t>
+  </si>
+  <si>
+    <t>44,56%</t>
   </si>
   <si>
     <t>71,01%</t>
   </si>
   <si>
-    <t>66,79%</t>
-  </si>
-  <si>
-    <t>75,11%</t>
+    <t>66,54%</t>
+  </si>
+  <si>
+    <t>74,97%</t>
   </si>
   <si>
     <t>16,32%</t>
   </si>
   <si>
-    <t>12,83%</t>
-  </si>
-  <si>
-    <t>20,25%</t>
+    <t>12,75%</t>
+  </si>
+  <si>
+    <t>20,64%</t>
   </si>
   <si>
     <t>70,82%</t>
   </si>
   <si>
-    <t>64,1%</t>
-  </si>
-  <si>
-    <t>77,59%</t>
+    <t>64,36%</t>
+  </si>
+  <si>
+    <t>77,02%</t>
   </si>
   <si>
     <t>36,79%</t>
   </si>
   <si>
-    <t>32,57%</t>
-  </si>
-  <si>
-    <t>41,03%</t>
+    <t>32,66%</t>
+  </si>
+  <si>
+    <t>40,96%</t>
   </si>
   <si>
     <t>83,68%</t>
   </si>
   <si>
-    <t>79,75%</t>
-  </si>
-  <si>
-    <t>87,17%</t>
+    <t>79,36%</t>
+  </si>
+  <si>
+    <t>87,25%</t>
   </si>
   <si>
     <t>29,18%</t>
   </si>
   <si>
-    <t>22,41%</t>
-  </si>
-  <si>
-    <t>35,9%</t>
+    <t>22,98%</t>
+  </si>
+  <si>
+    <t>35,64%</t>
   </si>
   <si>
     <t>63,21%</t>
   </si>
   <si>
-    <t>58,97%</t>
-  </si>
-  <si>
-    <t>67,43%</t>
+    <t>59,04%</t>
+  </si>
+  <si>
+    <t>67,34%</t>
   </si>
   <si>
     <t>12,45%</t>
   </si>
   <si>
-    <t>10,8%</t>
-  </si>
-  <si>
-    <t>14,44%</t>
+    <t>10,69%</t>
+  </si>
+  <si>
+    <t>14,35%</t>
   </si>
   <si>
     <t>66,14%</t>
   </si>
   <si>
-    <t>62,84%</t>
-  </si>
-  <si>
-    <t>69,56%</t>
+    <t>62,95%</t>
+  </si>
+  <si>
+    <t>69,33%</t>
   </si>
   <si>
     <t>33,8%</t>
   </si>
   <si>
-    <t>35,77%</t>
+    <t>31,82%</t>
+  </si>
+  <si>
+    <t>35,97%</t>
   </si>
   <si>
     <t>87,55%</t>
   </si>
   <si>
-    <t>85,56%</t>
-  </si>
-  <si>
-    <t>89,2%</t>
+    <t>85,65%</t>
+  </si>
+  <si>
+    <t>89,31%</t>
   </si>
   <si>
     <t>33,86%</t>
   </si>
   <si>
-    <t>30,44%</t>
-  </si>
-  <si>
-    <t>37,16%</t>
+    <t>30,67%</t>
+  </si>
+  <si>
+    <t>37,05%</t>
   </si>
   <si>
     <t>66,2%</t>
   </si>
   <si>
-    <t>64,23%</t>
+    <t>64,03%</t>
+  </si>
+  <si>
+    <t>68,18%</t>
   </si>
 </sst>
 </file>
@@ -1457,7 +1469,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{423DC66B-84D7-4D8B-82B1-0A49657B01BB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2EA3B37-B985-4D70-89B8-AA809AAF89BC}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2216,13 +2228,13 @@
         <v>144720</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>36</v>
+        <v>92</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="M16" s="7">
         <v>171</v>
@@ -2231,13 +2243,13 @@
         <v>171781</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2252,13 +2264,13 @@
         <v>314030</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="H17" s="7">
         <v>33</v>
@@ -2267,13 +2279,13 @@
         <v>34588</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>46</v>
+        <v>101</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="M17" s="7">
         <v>372</v>
@@ -2282,13 +2294,13 @@
         <v>348618</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2356,13 +2368,13 @@
         <v>107100</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="H19" s="7">
         <v>505</v>
@@ -2371,13 +2383,13 @@
         <v>507414</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="M19" s="7">
         <v>613</v>
@@ -2386,13 +2398,13 @@
         <v>614514</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2407,13 +2419,13 @@
         <v>1308412</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="H20" s="7">
         <v>103</v>
@@ -2422,13 +2434,13 @@
         <v>104662</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="M20" s="7">
         <v>1399</v>
@@ -2437,13 +2449,13 @@
         <v>1413074</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2499,7 +2511,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
     </row>
   </sheetData>
@@ -2520,7 +2532,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{371D4A50-11F9-4EBE-B776-19E999C71D58}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8C740B0-D1E2-4D98-B969-BA39E95C8F0D}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2537,7 +2549,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2644,13 +2656,13 @@
         <v>7189</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="H4" s="7">
         <v>21</v>
@@ -2659,13 +2671,13 @@
         <v>22533</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="M4" s="7">
         <v>29</v>
@@ -2674,13 +2686,13 @@
         <v>29722</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2695,13 +2707,13 @@
         <v>36890</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="H5" s="7">
         <v>6</v>
@@ -2710,13 +2722,13 @@
         <v>6429</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="M5" s="7">
         <v>46</v>
@@ -2725,13 +2737,13 @@
         <v>43319</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2799,13 +2811,13 @@
         <v>40642</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="H7" s="7">
         <v>87</v>
@@ -2814,13 +2826,13 @@
         <v>94225</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="M7" s="7">
         <v>123</v>
@@ -2829,13 +2841,13 @@
         <v>134867</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2850,13 +2862,13 @@
         <v>215976</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="H8" s="7">
         <v>65</v>
@@ -2865,13 +2877,13 @@
         <v>70358</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="M8" s="7">
         <v>266</v>
@@ -2880,13 +2892,13 @@
         <v>286334</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2954,13 +2966,13 @@
         <v>52202</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>162</v>
+        <v>64</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="H10" s="7">
         <v>164</v>
@@ -2969,13 +2981,13 @@
         <v>182475</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="M10" s="7">
         <v>209</v>
@@ -2984,13 +2996,13 @@
         <v>234677</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3005,13 +3017,13 @@
         <v>363332</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>172</v>
+        <v>56</v>
       </c>
       <c r="H11" s="7">
         <v>86</v>
@@ -3130,7 +3142,7 @@
         <v>183</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>85</v>
+        <v>184</v>
       </c>
       <c r="M13" s="7">
         <v>145</v>
@@ -3139,13 +3151,13 @@
         <v>163841</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3160,13 +3172,13 @@
         <v>263868</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="H14" s="7">
         <v>58</v>
@@ -3175,13 +3187,13 @@
         <v>61577</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>76</v>
+        <v>192</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="M14" s="7">
         <v>298</v>
@@ -3190,13 +3202,13 @@
         <v>325445</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3264,13 +3276,13 @@
         <v>41352</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="H16" s="7">
         <v>183</v>
@@ -3279,13 +3291,13 @@
         <v>194046</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="M16" s="7">
         <v>220</v>
@@ -3294,13 +3306,13 @@
         <v>235398</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3315,13 +3327,13 @@
         <v>322418</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="H17" s="7">
         <v>55</v>
@@ -3330,13 +3342,13 @@
         <v>58749</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="M17" s="7">
         <v>363</v>
@@ -3345,13 +3357,13 @@
         <v>381168</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3419,13 +3431,13 @@
         <v>172865</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="F19" s="7" t="s">
         <v>179</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="H19" s="7">
         <v>574</v>
@@ -3434,13 +3446,13 @@
         <v>625640</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="M19" s="7">
         <v>726</v>
@@ -3449,13 +3461,13 @@
         <v>798505</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3470,13 +3482,13 @@
         <v>1202484</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="H20" s="7">
         <v>270</v>
@@ -3485,13 +3497,13 @@
         <v>293051</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="M20" s="7">
         <v>1396</v>
@@ -3500,13 +3512,13 @@
         <v>1495535</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3562,7 +3574,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
     </row>
   </sheetData>
@@ -3583,7 +3595,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3BEC076D-B3A9-4591-B802-BF8289A4A7CC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A896FFC8-FC9C-4CCA-8EFC-143063D2708B}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3600,7 +3612,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3707,13 +3719,13 @@
         <v>9011</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="H4" s="7">
         <v>22</v>
@@ -3722,13 +3734,13 @@
         <v>23174</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="M4" s="7">
         <v>31</v>
@@ -3737,13 +3749,13 @@
         <v>32185</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3758,13 +3770,13 @@
         <v>37275</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="H5" s="7">
         <v>10</v>
@@ -3773,13 +3785,13 @@
         <v>10615</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="M5" s="7">
         <v>46</v>
@@ -3788,13 +3800,13 @@
         <v>47889</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3862,13 +3874,13 @@
         <v>23533</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="H7" s="7">
         <v>105</v>
@@ -3877,13 +3889,13 @@
         <v>112496</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="M7" s="7">
         <v>130</v>
@@ -3892,13 +3904,13 @@
         <v>136029</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3913,13 +3925,13 @@
         <v>215262</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="H8" s="7">
         <v>58</v>
@@ -3928,13 +3940,13 @@
         <v>56582</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="M8" s="7">
         <v>265</v>
@@ -3943,13 +3955,13 @@
         <v>271844</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4017,13 +4029,13 @@
         <v>52771</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="H10" s="7">
         <v>153</v>
@@ -4032,28 +4044,28 @@
         <v>179883</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="M10" s="7">
         <v>202</v>
       </c>
       <c r="N10" s="7">
-        <v>232654</v>
+        <v>232655</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4068,13 +4080,13 @@
         <v>342487</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="H11" s="7">
         <v>95</v>
@@ -4083,13 +4095,13 @@
         <v>100308</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="M11" s="7">
         <v>413</v>
@@ -4098,13 +4110,13 @@
         <v>442795</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4146,7 +4158,7 @@
         <v>615</v>
       </c>
       <c r="N12" s="7">
-        <v>675449</v>
+        <v>675450</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -4172,13 +4184,13 @@
         <v>25159</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="H13" s="7">
         <v>108</v>
@@ -4187,13 +4199,13 @@
         <v>124358</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="M13" s="7">
         <v>133</v>
@@ -4202,13 +4214,13 @@
         <v>149517</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4223,13 +4235,13 @@
         <v>293188</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="H14" s="7">
         <v>71</v>
@@ -4238,13 +4250,13 @@
         <v>72992</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="M14" s="7">
         <v>343</v>
@@ -4253,13 +4265,13 @@
         <v>366180</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4327,13 +4339,13 @@
         <v>58611</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="H16" s="7">
         <v>133</v>
@@ -4342,13 +4354,13 @@
         <v>152963</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="M16" s="7">
         <v>194</v>
@@ -4357,13 +4369,13 @@
         <v>211573</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4378,13 +4390,13 @@
         <v>300543</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="H17" s="7">
         <v>58</v>
@@ -4393,13 +4405,13 @@
         <v>63026</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="M17" s="7">
         <v>366</v>
@@ -4408,13 +4420,13 @@
         <v>363569</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4482,13 +4494,13 @@
         <v>169085</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="H19" s="7">
         <v>521</v>
@@ -4497,13 +4509,13 @@
         <v>592873</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="M19" s="7">
         <v>690</v>
@@ -4512,13 +4524,13 @@
         <v>761958</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>190</v>
+        <v>329</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>327</v>
+        <v>330</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4530,16 +4542,16 @@
         <v>1141</v>
       </c>
       <c r="D20" s="7">
-        <v>1188754</v>
+        <v>1188755</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="H20" s="7">
         <v>292</v>
@@ -4548,13 +4560,13 @@
         <v>303524</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>331</v>
+        <v>334</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>333</v>
+        <v>336</v>
       </c>
       <c r="M20" s="7">
         <v>1433</v>
@@ -4563,13 +4575,13 @@
         <v>1492279</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>334</v>
+        <v>337</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>182</v>
+        <v>339</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4581,7 +4593,7 @@
         <v>1310</v>
       </c>
       <c r="D21" s="7">
-        <v>1357839</v>
+        <v>1357840</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>30</v>
@@ -4625,7 +4637,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P74B-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P74B-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5864BFFF-9C16-4505-98D2-2EE90232984B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{02FBBABF-772B-42B7-BB0E-5A0C5AF2B95D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{795926DB-AE36-4E92-8BCB-C138CE281421}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{C0C34806-4800-447F-9936-8B93BC92B9B4}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="618" uniqueCount="340">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="618" uniqueCount="338">
   <si>
     <t>Población según si su pareja percibe algún tipo de pensión en 2007 (Tasa respuesta: 30,9%)</t>
   </si>
@@ -76,28 +76,28 @@
     <t>16,07%</t>
   </si>
   <si>
-    <t>7,17%</t>
-  </si>
-  <si>
-    <t>26,91%</t>
+    <t>8,7%</t>
+  </si>
+  <si>
+    <t>26,86%</t>
   </si>
   <si>
     <t>75,91%</t>
   </si>
   <si>
-    <t>61,66%</t>
-  </si>
-  <si>
-    <t>87,01%</t>
+    <t>60,17%</t>
+  </si>
+  <si>
+    <t>87,18%</t>
   </si>
   <si>
     <t>37,31%</t>
   </si>
   <si>
-    <t>27,13%</t>
-  </si>
-  <si>
-    <t>46,82%</t>
+    <t>28,22%</t>
+  </si>
+  <si>
+    <t>47,82%</t>
   </si>
   <si>
     <t>No</t>
@@ -106,28 +106,28 @@
     <t>83,93%</t>
   </si>
   <si>
-    <t>73,09%</t>
-  </si>
-  <si>
-    <t>92,83%</t>
+    <t>73,14%</t>
+  </si>
+  <si>
+    <t>91,3%</t>
   </si>
   <si>
     <t>24,09%</t>
   </si>
   <si>
-    <t>12,99%</t>
-  </si>
-  <si>
-    <t>38,34%</t>
+    <t>12,82%</t>
+  </si>
+  <si>
+    <t>39,83%</t>
   </si>
   <si>
     <t>62,69%</t>
   </si>
   <si>
-    <t>53,18%</t>
-  </si>
-  <si>
-    <t>72,87%</t>
+    <t>52,18%</t>
+  </si>
+  <si>
+    <t>71,78%</t>
   </si>
   <si>
     <t>100%</t>
@@ -139,55 +139,55 @@
     <t>7,35%</t>
   </si>
   <si>
-    <t>4,58%</t>
-  </si>
-  <si>
-    <t>10,56%</t>
+    <t>4,84%</t>
+  </si>
+  <si>
+    <t>11,18%</t>
   </si>
   <si>
     <t>87,96%</t>
   </si>
   <si>
-    <t>80,14%</t>
-  </si>
-  <si>
-    <t>92,77%</t>
+    <t>79,82%</t>
+  </si>
+  <si>
+    <t>92,94%</t>
   </si>
   <si>
     <t>31,33%</t>
   </si>
   <si>
-    <t>26,8%</t>
-  </si>
-  <si>
-    <t>36,38%</t>
+    <t>27,26%</t>
+  </si>
+  <si>
+    <t>35,55%</t>
   </si>
   <si>
     <t>92,65%</t>
   </si>
   <si>
-    <t>89,44%</t>
-  </si>
-  <si>
-    <t>95,42%</t>
+    <t>88,82%</t>
+  </si>
+  <si>
+    <t>95,16%</t>
   </si>
   <si>
     <t>12,04%</t>
   </si>
   <si>
-    <t>7,23%</t>
-  </si>
-  <si>
-    <t>19,86%</t>
+    <t>7,06%</t>
+  </si>
+  <si>
+    <t>20,18%</t>
   </si>
   <si>
     <t>68,67%</t>
   </si>
   <si>
-    <t>63,62%</t>
-  </si>
-  <si>
-    <t>73,2%</t>
+    <t>64,45%</t>
+  </si>
+  <si>
+    <t>72,74%</t>
   </si>
   <si>
     <t>10-50.000 hab</t>
@@ -196,223 +196,223 @@
     <t>8,17%</t>
   </si>
   <si>
-    <t>5,76%</t>
-  </si>
-  <si>
-    <t>11,13%</t>
+    <t>5,79%</t>
+  </si>
+  <si>
+    <t>11,67%</t>
   </si>
   <si>
     <t>85,7%</t>
   </si>
   <si>
-    <t>79,16%</t>
-  </si>
-  <si>
-    <t>90,51%</t>
+    <t>79,35%</t>
+  </si>
+  <si>
+    <t>90,84%</t>
   </si>
   <si>
     <t>29,64%</t>
   </si>
   <si>
+    <t>25,63%</t>
+  </si>
+  <si>
+    <t>33,41%</t>
+  </si>
+  <si>
+    <t>91,83%</t>
+  </si>
+  <si>
+    <t>88,33%</t>
+  </si>
+  <si>
+    <t>94,21%</t>
+  </si>
+  <si>
+    <t>14,3%</t>
+  </si>
+  <si>
+    <t>9,16%</t>
+  </si>
+  <si>
+    <t>20,65%</t>
+  </si>
+  <si>
+    <t>70,36%</t>
+  </si>
+  <si>
+    <t>66,59%</t>
+  </si>
+  <si>
+    <t>74,37%</t>
+  </si>
+  <si>
+    <t>&gt;50.000hab</t>
+  </si>
+  <si>
+    <t>4,95%</t>
+  </si>
+  <si>
+    <t>2,97%</t>
+  </si>
+  <si>
+    <t>7,87%</t>
+  </si>
+  <si>
+    <t>79,47%</t>
+  </si>
+  <si>
+    <t>72,07%</t>
+  </si>
+  <si>
+    <t>85,9%</t>
+  </si>
+  <si>
+    <t>25,67%</t>
+  </si>
+  <si>
+    <t>21,85%</t>
+  </si>
+  <si>
+    <t>30,17%</t>
+  </si>
+  <si>
+    <t>95,05%</t>
+  </si>
+  <si>
+    <t>92,13%</t>
+  </si>
+  <si>
+    <t>97,03%</t>
+  </si>
+  <si>
+    <t>20,53%</t>
+  </si>
+  <si>
+    <t>14,1%</t>
+  </si>
+  <si>
+    <t>27,93%</t>
+  </si>
+  <si>
+    <t>74,33%</t>
+  </si>
+  <si>
+    <t>69,83%</t>
+  </si>
+  <si>
+    <t>78,15%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>7,93%</t>
+  </si>
+  <si>
+    <t>5,6%</t>
+  </si>
+  <si>
+    <t>11,4%</t>
+  </si>
+  <si>
+    <t>80,71%</t>
+  </si>
+  <si>
+    <t>73,87%</t>
+  </si>
+  <si>
+    <t>86,23%</t>
+  </si>
+  <si>
+    <t>33,01%</t>
+  </si>
+  <si>
+    <t>29,04%</t>
+  </si>
+  <si>
+    <t>37,24%</t>
+  </si>
+  <si>
+    <t>92,07%</t>
+  </si>
+  <si>
+    <t>88,6%</t>
+  </si>
+  <si>
+    <t>94,4%</t>
+  </si>
+  <si>
+    <t>19,29%</t>
+  </si>
+  <si>
+    <t>13,77%</t>
+  </si>
+  <si>
     <t>26,13%</t>
   </si>
   <si>
-    <t>33,45%</t>
-  </si>
-  <si>
-    <t>91,83%</t>
-  </si>
-  <si>
-    <t>88,87%</t>
-  </si>
-  <si>
-    <t>94,24%</t>
-  </si>
-  <si>
-    <t>14,3%</t>
-  </si>
-  <si>
-    <t>9,49%</t>
-  </si>
-  <si>
-    <t>20,84%</t>
-  </si>
-  <si>
-    <t>70,36%</t>
-  </si>
-  <si>
-    <t>66,55%</t>
-  </si>
-  <si>
-    <t>73,87%</t>
-  </si>
-  <si>
-    <t>&gt;50.000hab</t>
-  </si>
-  <si>
-    <t>4,95%</t>
-  </si>
-  <si>
-    <t>2,96%</t>
-  </si>
-  <si>
-    <t>7,79%</t>
-  </si>
-  <si>
-    <t>79,47%</t>
-  </si>
-  <si>
-    <t>71,49%</t>
-  </si>
-  <si>
-    <t>85,85%</t>
-  </si>
-  <si>
-    <t>25,67%</t>
-  </si>
-  <si>
-    <t>22,06%</t>
-  </si>
-  <si>
-    <t>30,14%</t>
-  </si>
-  <si>
-    <t>95,05%</t>
-  </si>
-  <si>
-    <t>92,21%</t>
-  </si>
-  <si>
-    <t>97,04%</t>
-  </si>
-  <si>
-    <t>20,53%</t>
-  </si>
-  <si>
-    <t>14,15%</t>
-  </si>
-  <si>
-    <t>28,51%</t>
-  </si>
-  <si>
-    <t>74,33%</t>
-  </si>
-  <si>
-    <t>69,86%</t>
-  </si>
-  <si>
-    <t>77,94%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>7,93%</t>
-  </si>
-  <si>
-    <t>5,1%</t>
-  </si>
-  <si>
-    <t>10,95%</t>
-  </si>
-  <si>
-    <t>80,71%</t>
-  </si>
-  <si>
-    <t>74,46%</t>
-  </si>
-  <si>
-    <t>86,24%</t>
-  </si>
-  <si>
-    <t>33,01%</t>
-  </si>
-  <si>
-    <t>29,14%</t>
-  </si>
-  <si>
-    <t>37,25%</t>
-  </si>
-  <si>
-    <t>92,07%</t>
-  </si>
-  <si>
-    <t>89,05%</t>
-  </si>
-  <si>
-    <t>94,9%</t>
-  </si>
-  <si>
-    <t>19,29%</t>
-  </si>
-  <si>
-    <t>13,76%</t>
-  </si>
-  <si>
-    <t>25,54%</t>
-  </si>
-  <si>
     <t>66,99%</t>
   </si>
   <si>
-    <t>62,75%</t>
-  </si>
-  <si>
-    <t>70,86%</t>
+    <t>62,76%</t>
+  </si>
+  <si>
+    <t>70,96%</t>
   </si>
   <si>
     <t>7,57%</t>
   </si>
   <si>
-    <t>6,29%</t>
-  </si>
-  <si>
-    <t>9,02%</t>
+    <t>6,25%</t>
+  </si>
+  <si>
+    <t>9,1%</t>
   </si>
   <si>
     <t>82,9%</t>
   </si>
   <si>
-    <t>79,82%</t>
-  </si>
-  <si>
-    <t>85,66%</t>
+    <t>79,55%</t>
+  </si>
+  <si>
+    <t>85,86%</t>
   </si>
   <si>
     <t>30,31%</t>
   </si>
   <si>
-    <t>28,28%</t>
-  </si>
-  <si>
-    <t>32,29%</t>
+    <t>28,27%</t>
+  </si>
+  <si>
+    <t>32,28%</t>
   </si>
   <si>
     <t>92,43%</t>
   </si>
   <si>
-    <t>90,98%</t>
-  </si>
-  <si>
-    <t>93,71%</t>
+    <t>90,9%</t>
+  </si>
+  <si>
+    <t>93,75%</t>
   </si>
   <si>
     <t>17,1%</t>
   </si>
   <si>
-    <t>14,34%</t>
-  </si>
-  <si>
-    <t>20,18%</t>
+    <t>14,14%</t>
+  </si>
+  <si>
+    <t>20,45%</t>
   </si>
   <si>
     <t>69,69%</t>
   </si>
   <si>
-    <t>67,71%</t>
-  </si>
-  <si>
-    <t>71,72%</t>
+    <t>67,72%</t>
+  </si>
+  <si>
+    <t>71,73%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -424,313 +424,319 @@
     <t>16,31%</t>
   </si>
   <si>
-    <t>7,82%</t>
-  </si>
-  <si>
-    <t>28,0%</t>
+    <t>7,9%</t>
   </si>
   <si>
     <t>77,8%</t>
   </si>
   <si>
-    <t>59,33%</t>
-  </si>
-  <si>
-    <t>92,4%</t>
+    <t>59,24%</t>
+  </si>
+  <si>
+    <t>90,03%</t>
   </si>
   <si>
     <t>40,69%</t>
   </si>
   <si>
-    <t>28,89%</t>
-  </si>
-  <si>
-    <t>51,74%</t>
+    <t>29,6%</t>
+  </si>
+  <si>
+    <t>51,92%</t>
   </si>
   <si>
     <t>83,69%</t>
   </si>
   <si>
-    <t>72,0%</t>
-  </si>
-  <si>
-    <t>92,18%</t>
+    <t>92,1%</t>
   </si>
   <si>
     <t>22,2%</t>
   </si>
   <si>
-    <t>7,6%</t>
-  </si>
-  <si>
-    <t>40,67%</t>
+    <t>9,97%</t>
+  </si>
+  <si>
+    <t>40,76%</t>
   </si>
   <si>
     <t>59,31%</t>
   </si>
   <si>
-    <t>48,26%</t>
-  </si>
-  <si>
-    <t>71,11%</t>
+    <t>48,08%</t>
+  </si>
+  <si>
+    <t>70,4%</t>
   </si>
   <si>
     <t>15,84%</t>
   </si>
   <si>
-    <t>11,49%</t>
-  </si>
-  <si>
-    <t>20,45%</t>
+    <t>11,71%</t>
+  </si>
+  <si>
+    <t>21,81%</t>
   </si>
   <si>
     <t>57,25%</t>
   </si>
   <si>
-    <t>49,17%</t>
-  </si>
-  <si>
-    <t>64,82%</t>
+    <t>49,74%</t>
+  </si>
+  <si>
+    <t>65,02%</t>
   </si>
   <si>
     <t>32,02%</t>
   </si>
   <si>
-    <t>26,84%</t>
-  </si>
-  <si>
-    <t>37,06%</t>
+    <t>27,69%</t>
+  </si>
+  <si>
+    <t>36,92%</t>
   </si>
   <si>
     <t>84,16%</t>
   </si>
   <si>
-    <t>79,55%</t>
-  </si>
-  <si>
-    <t>88,51%</t>
+    <t>78,19%</t>
+  </si>
+  <si>
+    <t>88,29%</t>
   </si>
   <si>
     <t>42,75%</t>
   </si>
   <si>
-    <t>35,18%</t>
-  </si>
-  <si>
-    <t>50,83%</t>
+    <t>34,98%</t>
+  </si>
+  <si>
+    <t>50,26%</t>
   </si>
   <si>
     <t>67,98%</t>
   </si>
   <si>
-    <t>62,94%</t>
-  </si>
-  <si>
-    <t>73,16%</t>
+    <t>63,08%</t>
+  </si>
+  <si>
+    <t>72,31%</t>
   </si>
   <si>
     <t>12,56%</t>
   </si>
   <si>
-    <t>16,28%</t>
+    <t>9,46%</t>
+  </si>
+  <si>
+    <t>16,5%</t>
   </si>
   <si>
     <t>65,54%</t>
   </si>
   <si>
-    <t>59,29%</t>
-  </si>
-  <si>
-    <t>71,24%</t>
+    <t>59,03%</t>
+  </si>
+  <si>
+    <t>71,46%</t>
   </si>
   <si>
     <t>33,82%</t>
   </si>
   <si>
-    <t>30,24%</t>
-  </si>
-  <si>
-    <t>37,26%</t>
+    <t>30,21%</t>
+  </si>
+  <si>
+    <t>37,65%</t>
   </si>
   <si>
     <t>87,44%</t>
   </si>
   <si>
-    <t>83,72%</t>
+    <t>83,5%</t>
+  </si>
+  <si>
+    <t>90,54%</t>
   </si>
   <si>
     <t>34,46%</t>
   </si>
   <si>
-    <t>28,76%</t>
-  </si>
-  <si>
-    <t>40,71%</t>
+    <t>28,54%</t>
+  </si>
+  <si>
+    <t>40,97%</t>
   </si>
   <si>
     <t>66,18%</t>
   </si>
   <si>
-    <t>62,74%</t>
-  </si>
-  <si>
-    <t>69,76%</t>
+    <t>62,35%</t>
+  </si>
+  <si>
+    <t>69,79%</t>
   </si>
   <si>
     <t>10,66%</t>
   </si>
   <si>
-    <t>7,34%</t>
-  </si>
-  <si>
-    <t>15,19%</t>
+    <t>7,18%</t>
+  </si>
+  <si>
+    <t>15,52%</t>
   </si>
   <si>
     <t>68,25%</t>
   </si>
   <si>
-    <t>61,75%</t>
-  </si>
-  <si>
-    <t>75,04%</t>
+    <t>61,17%</t>
+  </si>
+  <si>
+    <t>75,29%</t>
   </si>
   <si>
     <t>33,49%</t>
   </si>
   <si>
-    <t>28,95%</t>
-  </si>
-  <si>
-    <t>37,95%</t>
+    <t>28,97%</t>
+  </si>
+  <si>
+    <t>38,08%</t>
   </si>
   <si>
     <t>89,34%</t>
   </si>
   <si>
-    <t>84,81%</t>
-  </si>
-  <si>
-    <t>92,66%</t>
+    <t>84,48%</t>
+  </si>
+  <si>
+    <t>92,82%</t>
   </si>
   <si>
     <t>31,75%</t>
   </si>
   <si>
-    <t>24,96%</t>
-  </si>
-  <si>
-    <t>38,25%</t>
+    <t>24,71%</t>
+  </si>
+  <si>
+    <t>38,83%</t>
   </si>
   <si>
     <t>66,51%</t>
   </si>
   <si>
-    <t>62,05%</t>
-  </si>
-  <si>
-    <t>71,05%</t>
+    <t>61,92%</t>
+  </si>
+  <si>
+    <t>71,03%</t>
   </si>
   <si>
     <t>11,37%</t>
   </si>
   <si>
-    <t>8,29%</t>
-  </si>
-  <si>
-    <t>15,27%</t>
+    <t>8,0%</t>
+  </si>
+  <si>
+    <t>15,13%</t>
   </si>
   <si>
     <t>76,76%</t>
   </si>
   <si>
-    <t>71,19%</t>
-  </si>
-  <si>
-    <t>82,3%</t>
+    <t>70,8%</t>
+  </si>
+  <si>
+    <t>81,55%</t>
   </si>
   <si>
     <t>38,18%</t>
   </si>
   <si>
-    <t>34,36%</t>
-  </si>
-  <si>
-    <t>42,18%</t>
+    <t>34,33%</t>
+  </si>
+  <si>
+    <t>42,51%</t>
   </si>
   <si>
     <t>88,63%</t>
   </si>
   <si>
-    <t>84,73%</t>
-  </si>
-  <si>
-    <t>91,71%</t>
+    <t>84,87%</t>
+  </si>
+  <si>
+    <t>92,0%</t>
   </si>
   <si>
     <t>23,24%</t>
   </si>
   <si>
-    <t>17,7%</t>
-  </si>
-  <si>
-    <t>28,81%</t>
+    <t>18,45%</t>
+  </si>
+  <si>
+    <t>29,2%</t>
   </si>
   <si>
     <t>61,82%</t>
   </si>
   <si>
-    <t>57,82%</t>
-  </si>
-  <si>
-    <t>65,64%</t>
+    <t>57,49%</t>
+  </si>
+  <si>
+    <t>65,67%</t>
   </si>
   <si>
     <t>12,57%</t>
   </si>
   <si>
-    <t>14,66%</t>
+    <t>10,75%</t>
+  </si>
+  <si>
+    <t>14,57%</t>
   </si>
   <si>
     <t>68,1%</t>
   </si>
   <si>
-    <t>65,09%</t>
-  </si>
-  <si>
-    <t>71,6%</t>
+    <t>64,96%</t>
+  </si>
+  <si>
+    <t>71,07%</t>
   </si>
   <si>
     <t>34,81%</t>
   </si>
   <si>
-    <t>32,77%</t>
-  </si>
-  <si>
-    <t>36,97%</t>
+    <t>32,8%</t>
+  </si>
+  <si>
+    <t>36,85%</t>
   </si>
   <si>
     <t>87,43%</t>
   </si>
   <si>
-    <t>85,34%</t>
+    <t>85,43%</t>
+  </si>
+  <si>
+    <t>89,25%</t>
   </si>
   <si>
     <t>31,9%</t>
   </si>
   <si>
-    <t>28,4%</t>
-  </si>
-  <si>
-    <t>34,91%</t>
+    <t>28,93%</t>
+  </si>
+  <si>
+    <t>35,04%</t>
   </si>
   <si>
     <t>65,19%</t>
   </si>
   <si>
-    <t>63,03%</t>
-  </si>
-  <si>
-    <t>67,23%</t>
+    <t>63,15%</t>
+  </si>
+  <si>
+    <t>67,2%</t>
   </si>
   <si>
     <t>Población según si su pareja percibe algún tipo de pensión en 2016 (Tasa respuesta: 32,32%)</t>
@@ -739,325 +745,313 @@
     <t>19,47%</t>
   </si>
   <si>
-    <t>9,36%</t>
-  </si>
-  <si>
-    <t>33,83%</t>
+    <t>10,62%</t>
+  </si>
+  <si>
+    <t>33,9%</t>
   </si>
   <si>
     <t>68,59%</t>
   </si>
   <si>
-    <t>49,51%</t>
-  </si>
-  <si>
-    <t>83,43%</t>
+    <t>49,78%</t>
+  </si>
+  <si>
+    <t>82,96%</t>
   </si>
   <si>
     <t>40,19%</t>
   </si>
   <si>
-    <t>28,42%</t>
-  </si>
-  <si>
-    <t>52,03%</t>
+    <t>29,23%</t>
+  </si>
+  <si>
+    <t>51,52%</t>
   </si>
   <si>
     <t>80,53%</t>
   </si>
   <si>
-    <t>66,17%</t>
-  </si>
-  <si>
-    <t>90,64%</t>
+    <t>66,1%</t>
+  </si>
+  <si>
+    <t>89,38%</t>
   </si>
   <si>
     <t>31,41%</t>
   </si>
   <si>
-    <t>16,57%</t>
-  </si>
-  <si>
-    <t>50,49%</t>
+    <t>17,04%</t>
+  </si>
+  <si>
+    <t>50,22%</t>
   </si>
   <si>
     <t>59,81%</t>
   </si>
   <si>
-    <t>47,97%</t>
-  </si>
-  <si>
-    <t>71,58%</t>
+    <t>48,48%</t>
+  </si>
+  <si>
+    <t>70,77%</t>
   </si>
   <si>
     <t>9,85%</t>
   </si>
   <si>
-    <t>6,58%</t>
-  </si>
-  <si>
-    <t>14,4%</t>
+    <t>6,59%</t>
+  </si>
+  <si>
+    <t>14,29%</t>
   </si>
   <si>
     <t>66,53%</t>
   </si>
   <si>
-    <t>59,57%</t>
-  </si>
-  <si>
-    <t>73,56%</t>
+    <t>59,0%</t>
+  </si>
+  <si>
+    <t>73,11%</t>
   </si>
   <si>
     <t>33,35%</t>
   </si>
   <si>
-    <t>28,84%</t>
-  </si>
-  <si>
-    <t>37,8%</t>
+    <t>28,46%</t>
+  </si>
+  <si>
+    <t>38,3%</t>
   </si>
   <si>
     <t>90,15%</t>
   </si>
   <si>
-    <t>85,6%</t>
-  </si>
-  <si>
-    <t>93,42%</t>
+    <t>85,71%</t>
+  </si>
+  <si>
+    <t>93,41%</t>
   </si>
   <si>
     <t>33,47%</t>
   </si>
   <si>
-    <t>26,44%</t>
-  </si>
-  <si>
-    <t>40,43%</t>
+    <t>26,89%</t>
+  </si>
+  <si>
+    <t>41,0%</t>
   </si>
   <si>
     <t>66,65%</t>
   </si>
   <si>
-    <t>62,2%</t>
-  </si>
-  <si>
-    <t>71,16%</t>
+    <t>61,7%</t>
+  </si>
+  <si>
+    <t>71,54%</t>
   </si>
   <si>
     <t>13,35%</t>
   </si>
   <si>
-    <t>9,94%</t>
-  </si>
-  <si>
-    <t>17,43%</t>
+    <t>10,22%</t>
+  </si>
+  <si>
+    <t>17,18%</t>
   </si>
   <si>
     <t>64,2%</t>
   </si>
   <si>
-    <t>58,19%</t>
-  </si>
-  <si>
-    <t>70,19%</t>
+    <t>58,53%</t>
+  </si>
+  <si>
+    <t>70,66%</t>
   </si>
   <si>
     <t>34,44%</t>
   </si>
   <si>
-    <t>30,97%</t>
-  </si>
-  <si>
-    <t>38,66%</t>
+    <t>30,82%</t>
+  </si>
+  <si>
+    <t>38,13%</t>
   </si>
   <si>
     <t>86,65%</t>
   </si>
   <si>
-    <t>82,57%</t>
-  </si>
-  <si>
-    <t>90,06%</t>
+    <t>82,82%</t>
+  </si>
+  <si>
+    <t>89,78%</t>
   </si>
   <si>
     <t>35,8%</t>
   </si>
   <si>
-    <t>29,81%</t>
-  </si>
-  <si>
-    <t>41,81%</t>
+    <t>29,34%</t>
+  </si>
+  <si>
+    <t>41,47%</t>
   </si>
   <si>
     <t>65,56%</t>
   </si>
   <si>
-    <t>61,34%</t>
-  </si>
-  <si>
-    <t>69,03%</t>
-  </si>
-  <si>
-    <t>7,9%</t>
-  </si>
-  <si>
-    <t>5,44%</t>
-  </si>
-  <si>
-    <t>11,57%</t>
+    <t>61,87%</t>
+  </si>
+  <si>
+    <t>69,18%</t>
+  </si>
+  <si>
+    <t>5,38%</t>
+  </si>
+  <si>
+    <t>11,42%</t>
   </si>
   <si>
     <t>63,01%</t>
   </si>
   <si>
-    <t>55,44%</t>
-  </si>
-  <si>
-    <t>70,09%</t>
+    <t>55,73%</t>
+  </si>
+  <si>
+    <t>70,02%</t>
   </si>
   <si>
     <t>28,99%</t>
   </si>
   <si>
-    <t>25,03%</t>
-  </si>
-  <si>
-    <t>33,46%</t>
-  </si>
-  <si>
-    <t>92,1%</t>
-  </si>
-  <si>
-    <t>88,43%</t>
-  </si>
-  <si>
-    <t>94,56%</t>
+    <t>24,76%</t>
+  </si>
+  <si>
+    <t>33,1%</t>
+  </si>
+  <si>
+    <t>88,58%</t>
+  </si>
+  <si>
+    <t>94,62%</t>
   </si>
   <si>
     <t>36,99%</t>
   </si>
   <si>
-    <t>29,91%</t>
-  </si>
-  <si>
-    <t>44,56%</t>
+    <t>29,98%</t>
+  </si>
+  <si>
+    <t>44,27%</t>
   </si>
   <si>
     <t>71,01%</t>
   </si>
   <si>
-    <t>66,54%</t>
-  </si>
-  <si>
-    <t>74,97%</t>
+    <t>66,9%</t>
+  </si>
+  <si>
+    <t>75,24%</t>
   </si>
   <si>
     <t>16,32%</t>
   </si>
   <si>
-    <t>12,75%</t>
-  </si>
-  <si>
-    <t>20,64%</t>
+    <t>12,67%</t>
+  </si>
+  <si>
+    <t>20,01%</t>
   </si>
   <si>
     <t>70,82%</t>
   </si>
   <si>
-    <t>64,36%</t>
-  </si>
-  <si>
-    <t>77,02%</t>
+    <t>76,95%</t>
   </si>
   <si>
     <t>36,79%</t>
   </si>
   <si>
-    <t>32,66%</t>
-  </si>
-  <si>
-    <t>40,96%</t>
+    <t>32,75%</t>
+  </si>
+  <si>
+    <t>41,03%</t>
   </si>
   <si>
     <t>83,68%</t>
   </si>
   <si>
-    <t>79,36%</t>
-  </si>
-  <si>
-    <t>87,25%</t>
+    <t>79,99%</t>
+  </si>
+  <si>
+    <t>87,33%</t>
   </si>
   <si>
     <t>29,18%</t>
   </si>
   <si>
-    <t>22,98%</t>
-  </si>
-  <si>
-    <t>35,64%</t>
+    <t>23,05%</t>
   </si>
   <si>
     <t>63,21%</t>
   </si>
   <si>
-    <t>59,04%</t>
-  </si>
-  <si>
-    <t>67,34%</t>
+    <t>58,97%</t>
+  </si>
+  <si>
+    <t>67,25%</t>
   </si>
   <si>
     <t>12,45%</t>
   </si>
   <si>
-    <t>10,69%</t>
-  </si>
-  <si>
-    <t>14,35%</t>
+    <t>10,76%</t>
+  </si>
+  <si>
+    <t>14,39%</t>
   </si>
   <si>
     <t>66,14%</t>
   </si>
   <si>
-    <t>62,95%</t>
-  </si>
-  <si>
-    <t>69,33%</t>
+    <t>62,85%</t>
+  </si>
+  <si>
+    <t>69,61%</t>
   </si>
   <si>
     <t>33,8%</t>
   </si>
   <si>
-    <t>31,82%</t>
-  </si>
-  <si>
-    <t>35,97%</t>
+    <t>31,73%</t>
+  </si>
+  <si>
+    <t>35,65%</t>
   </si>
   <si>
     <t>87,55%</t>
   </si>
   <si>
-    <t>85,65%</t>
-  </si>
-  <si>
-    <t>89,31%</t>
+    <t>85,61%</t>
+  </si>
+  <si>
+    <t>89,24%</t>
   </si>
   <si>
     <t>33,86%</t>
   </si>
   <si>
-    <t>30,67%</t>
-  </si>
-  <si>
-    <t>37,05%</t>
+    <t>30,39%</t>
+  </si>
+  <si>
+    <t>37,15%</t>
   </si>
   <si>
     <t>66,2%</t>
   </si>
   <si>
-    <t>64,03%</t>
-  </si>
-  <si>
-    <t>68,18%</t>
+    <t>64,35%</t>
+  </si>
+  <si>
+    <t>68,27%</t>
   </si>
 </sst>
 </file>
@@ -1469,7 +1463,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2EA3B37-B985-4D70-89B8-AA809AAF89BC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9884836F-6580-4194-BA67-BC54BD6E2719}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2532,7 +2526,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8C740B0-D1E2-4D98-B969-BA39E95C8F0D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{123DEE20-E1DF-43E4-84F1-16D92DACE811}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2662,7 +2656,7 @@
         <v>128</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>129</v>
+        <v>18</v>
       </c>
       <c r="H4" s="7">
         <v>21</v>
@@ -2671,13 +2665,13 @@
         <v>22533</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="K4" s="7" t="s">
         <v>130</v>
       </c>
-      <c r="K4" s="7" t="s">
+      <c r="L4" s="7" t="s">
         <v>131</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>132</v>
       </c>
       <c r="M4" s="7">
         <v>29</v>
@@ -2686,13 +2680,13 @@
         <v>29722</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="P4" s="7" t="s">
         <v>133</v>
       </c>
-      <c r="P4" s="7" t="s">
+      <c r="Q4" s="7" t="s">
         <v>134</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2707,13 +2701,13 @@
         <v>36890</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="G5" s="7" t="s">
         <v>136</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>137</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>138</v>
       </c>
       <c r="H5" s="7">
         <v>6</v>
@@ -2722,13 +2716,13 @@
         <v>6429</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="L5" s="7" t="s">
         <v>139</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>140</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>141</v>
       </c>
       <c r="M5" s="7">
         <v>46</v>
@@ -2737,13 +2731,13 @@
         <v>43319</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>142</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>143</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>144</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2811,13 +2805,13 @@
         <v>40642</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>145</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>146</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>147</v>
       </c>
       <c r="H7" s="7">
         <v>87</v>
@@ -2826,13 +2820,13 @@
         <v>94225</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="L7" s="7" t="s">
         <v>148</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>149</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>150</v>
       </c>
       <c r="M7" s="7">
         <v>123</v>
@@ -2841,13 +2835,13 @@
         <v>134867</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="P7" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="Q7" s="7" t="s">
         <v>151</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>152</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>153</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2862,13 +2856,13 @@
         <v>215976</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="G8" s="7" t="s">
         <v>154</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>155</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>156</v>
       </c>
       <c r="H8" s="7">
         <v>65</v>
@@ -2877,13 +2871,13 @@
         <v>70358</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="L8" s="7" t="s">
         <v>157</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>158</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>159</v>
       </c>
       <c r="M8" s="7">
         <v>266</v>
@@ -2892,13 +2886,13 @@
         <v>286334</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>160</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>161</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>162</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2966,13 +2960,13 @@
         <v>52202</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>163</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>164</v>
       </c>
       <c r="H10" s="7">
         <v>164</v>
@@ -2981,13 +2975,13 @@
         <v>182475</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="K10" s="7" t="s">
         <v>165</v>
       </c>
-      <c r="K10" s="7" t="s">
+      <c r="L10" s="7" t="s">
         <v>166</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>167</v>
       </c>
       <c r="M10" s="7">
         <v>209</v>
@@ -2996,13 +2990,13 @@
         <v>234677</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="P10" s="7" t="s">
         <v>168</v>
       </c>
-      <c r="P10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>169</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>170</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3017,13 +3011,13 @@
         <v>363332</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="F11" s="7" t="s">
         <v>171</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="G11" s="7" t="s">
         <v>172</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>56</v>
       </c>
       <c r="H11" s="7">
         <v>86</v>
@@ -3434,10 +3428,10 @@
         <v>215</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>179</v>
+        <v>216</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="H19" s="7">
         <v>574</v>
@@ -3446,13 +3440,13 @@
         <v>625640</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="M19" s="7">
         <v>726</v>
@@ -3461,13 +3455,13 @@
         <v>798505</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3482,13 +3476,13 @@
         <v>1202484</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>188</v>
+        <v>226</v>
       </c>
       <c r="H20" s="7">
         <v>270</v>
@@ -3497,13 +3491,13 @@
         <v>293051</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="M20" s="7">
         <v>1396</v>
@@ -3512,13 +3506,13 @@
         <v>1495535</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3595,7 +3589,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A896FFC8-FC9C-4CCA-8EFC-143063D2708B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13513AAA-34BD-41FE-8373-4EE2D8BD9A62}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3612,7 +3606,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3719,13 +3713,13 @@
         <v>9011</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="H4" s="7">
         <v>22</v>
@@ -3734,13 +3728,13 @@
         <v>23174</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="M4" s="7">
         <v>31</v>
@@ -3749,13 +3743,13 @@
         <v>32185</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3770,13 +3764,13 @@
         <v>37275</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="H5" s="7">
         <v>10</v>
@@ -3785,13 +3779,13 @@
         <v>10615</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="M5" s="7">
         <v>46</v>
@@ -3800,13 +3794,13 @@
         <v>47889</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3874,13 +3868,13 @@
         <v>23533</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="H7" s="7">
         <v>105</v>
@@ -3889,13 +3883,13 @@
         <v>112496</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="M7" s="7">
         <v>130</v>
@@ -3904,13 +3898,13 @@
         <v>136029</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3925,13 +3919,13 @@
         <v>215262</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="H8" s="7">
         <v>58</v>
@@ -3940,13 +3934,13 @@
         <v>56582</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="M8" s="7">
         <v>265</v>
@@ -3955,13 +3949,13 @@
         <v>271844</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4029,13 +4023,13 @@
         <v>52771</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="H10" s="7">
         <v>153</v>
@@ -4044,13 +4038,13 @@
         <v>179883</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="M10" s="7">
         <v>202</v>
@@ -4059,13 +4053,13 @@
         <v>232655</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4080,13 +4074,13 @@
         <v>342487</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="H11" s="7">
         <v>95</v>
@@ -4095,13 +4089,13 @@
         <v>100308</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="M11" s="7">
         <v>413</v>
@@ -4110,13 +4104,13 @@
         <v>442795</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4184,13 +4178,13 @@
         <v>25159</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>286</v>
+        <v>128</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="H13" s="7">
         <v>108</v>
@@ -4199,13 +4193,13 @@
         <v>124358</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="M13" s="7">
         <v>133</v>
@@ -4214,13 +4208,13 @@
         <v>149517</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4235,7 +4229,7 @@
         <v>293188</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>295</v>
+        <v>136</v>
       </c>
       <c r="F14" s="7" t="s">
         <v>296</v>
@@ -4357,10 +4351,10 @@
         <v>307</v>
       </c>
       <c r="K16" s="7" t="s">
+        <v>273</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>308</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>309</v>
       </c>
       <c r="M16" s="7">
         <v>194</v>
@@ -4369,13 +4363,13 @@
         <v>211573</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>309</v>
+      </c>
+      <c r="P16" s="7" t="s">
         <v>310</v>
       </c>
-      <c r="P16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>311</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>312</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4390,13 +4384,13 @@
         <v>300543</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>312</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>313</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="G17" s="7" t="s">
         <v>314</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>315</v>
       </c>
       <c r="H17" s="7">
         <v>58</v>
@@ -4405,13 +4399,13 @@
         <v>63026</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>315</v>
+      </c>
+      <c r="K17" s="7" t="s">
         <v>316</v>
       </c>
-      <c r="K17" s="7" t="s">
-        <v>317</v>
-      </c>
       <c r="L17" s="7" t="s">
-        <v>318</v>
+        <v>282</v>
       </c>
       <c r="M17" s="7">
         <v>366</v>
@@ -4420,13 +4414,13 @@
         <v>363569</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>317</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>318</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>319</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>320</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>321</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4494,13 +4488,13 @@
         <v>169085</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>320</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>321</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>322</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>323</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>324</v>
       </c>
       <c r="H19" s="7">
         <v>521</v>
@@ -4509,13 +4503,13 @@
         <v>592873</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>323</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>324</v>
+      </c>
+      <c r="L19" s="7" t="s">
         <v>325</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>326</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>327</v>
       </c>
       <c r="M19" s="7">
         <v>690</v>
@@ -4524,13 +4518,13 @@
         <v>761958</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>326</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>327</v>
+      </c>
+      <c r="Q19" s="7" t="s">
         <v>328</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>329</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>330</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4542,16 +4536,16 @@
         <v>1141</v>
       </c>
       <c r="D20" s="7">
-        <v>1188755</v>
+        <v>1188754</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>329</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>330</v>
+      </c>
+      <c r="G20" s="7" t="s">
         <v>331</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>332</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>333</v>
       </c>
       <c r="H20" s="7">
         <v>292</v>
@@ -4560,13 +4554,13 @@
         <v>303524</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>332</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>333</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>334</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>335</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>336</v>
       </c>
       <c r="M20" s="7">
         <v>1433</v>
@@ -4575,13 +4569,13 @@
         <v>1492279</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>335</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>336</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>337</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>338</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>339</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4593,7 +4587,7 @@
         <v>1310</v>
       </c>
       <c r="D21" s="7">
-        <v>1357840</v>
+        <v>1357839</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>30</v>

--- a/data/trans_orig/P74B-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P74B-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{02FBBABF-772B-42B7-BB0E-5A0C5AF2B95D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{1C936DCF-B759-4FEC-AB66-DB0C2F36F192}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{C0C34806-4800-447F-9936-8B93BC92B9B4}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{E1F782E9-5522-4A43-8C3A-4958F6728E18}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="618" uniqueCount="338">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="525" uniqueCount="285">
   <si>
     <t>Población según si su pareja percibe algún tipo de pensión en 2007 (Tasa respuesta: 30,9%)</t>
   </si>
@@ -67,129 +67,72 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>&lt;2.000hab</t>
+    <t>&lt;10.000 hab</t>
   </si>
   <si>
     <t>Sí</t>
   </si>
   <si>
-    <t>16,07%</t>
-  </si>
-  <si>
-    <t>8,7%</t>
-  </si>
-  <si>
-    <t>26,86%</t>
-  </si>
-  <si>
-    <t>75,91%</t>
-  </si>
-  <si>
-    <t>60,17%</t>
-  </si>
-  <si>
-    <t>87,18%</t>
-  </si>
-  <si>
-    <t>37,31%</t>
-  </si>
-  <si>
-    <t>28,22%</t>
-  </si>
-  <si>
-    <t>47,82%</t>
+    <t>8,92%</t>
+  </si>
+  <si>
+    <t>6,16%</t>
+  </si>
+  <si>
+    <t>12,52%</t>
+  </si>
+  <si>
+    <t>85,28%</t>
+  </si>
+  <si>
+    <t>78,33%</t>
+  </si>
+  <si>
+    <t>89,95%</t>
+  </si>
+  <si>
+    <t>32,49%</t>
+  </si>
+  <si>
+    <t>28,24%</t>
+  </si>
+  <si>
+    <t>37,17%</t>
   </si>
   <si>
     <t>No</t>
   </si>
   <si>
-    <t>83,93%</t>
-  </si>
-  <si>
-    <t>73,14%</t>
-  </si>
-  <si>
-    <t>91,3%</t>
-  </si>
-  <si>
-    <t>24,09%</t>
-  </si>
-  <si>
-    <t>12,82%</t>
-  </si>
-  <si>
-    <t>39,83%</t>
-  </si>
-  <si>
-    <t>62,69%</t>
-  </si>
-  <si>
-    <t>52,18%</t>
-  </si>
-  <si>
-    <t>71,78%</t>
+    <t>91,08%</t>
+  </si>
+  <si>
+    <t>87,48%</t>
+  </si>
+  <si>
+    <t>93,84%</t>
+  </si>
+  <si>
+    <t>14,72%</t>
+  </si>
+  <si>
+    <t>10,05%</t>
+  </si>
+  <si>
+    <t>21,67%</t>
+  </si>
+  <si>
+    <t>67,51%</t>
+  </si>
+  <si>
+    <t>62,83%</t>
+  </si>
+  <si>
+    <t>71,76%</t>
   </si>
   <si>
     <t>100%</t>
   </si>
   <si>
-    <t>2-10.000 hab</t>
-  </si>
-  <si>
-    <t>7,35%</t>
-  </si>
-  <si>
-    <t>4,84%</t>
-  </si>
-  <si>
-    <t>11,18%</t>
-  </si>
-  <si>
-    <t>87,96%</t>
-  </si>
-  <si>
-    <t>79,82%</t>
-  </si>
-  <si>
-    <t>92,94%</t>
-  </si>
-  <si>
-    <t>31,33%</t>
-  </si>
-  <si>
-    <t>27,26%</t>
-  </si>
-  <si>
-    <t>35,55%</t>
-  </si>
-  <si>
-    <t>92,65%</t>
-  </si>
-  <si>
-    <t>88,82%</t>
-  </si>
-  <si>
-    <t>95,16%</t>
-  </si>
-  <si>
-    <t>12,04%</t>
-  </si>
-  <si>
-    <t>7,06%</t>
-  </si>
-  <si>
-    <t>20,18%</t>
-  </si>
-  <si>
-    <t>68,67%</t>
-  </si>
-  <si>
-    <t>64,45%</t>
-  </si>
-  <si>
-    <t>72,74%</t>
-  </si>
-  <si>
     <t>10-50.000 hab</t>
   </si>
   <si>
@@ -247,7 +190,7 @@
     <t>74,37%</t>
   </si>
   <si>
-    <t>&gt;50.000hab</t>
+    <t>&gt;50.000 hab</t>
   </si>
   <si>
     <t>4,95%</t>
@@ -421,514 +364,412 @@
     <t>Población según si su pareja percibe algún tipo de pensión en 2012 (Tasa respuesta: 32,61%)</t>
   </si>
   <si>
-    <t>16,31%</t>
+    <t>15,91%</t>
+  </si>
+  <si>
+    <t>11,72%</t>
+  </si>
+  <si>
+    <t>20,47%</t>
+  </si>
+  <si>
+    <t>60,33%</t>
+  </si>
+  <si>
+    <t>52,6%</t>
+  </si>
+  <si>
+    <t>67,63%</t>
+  </si>
+  <si>
+    <t>33,3%</t>
+  </si>
+  <si>
+    <t>29,22%</t>
+  </si>
+  <si>
+    <t>37,6%</t>
+  </si>
+  <si>
+    <t>84,09%</t>
+  </si>
+  <si>
+    <t>79,53%</t>
+  </si>
+  <si>
+    <t>88,28%</t>
+  </si>
+  <si>
+    <t>39,67%</t>
+  </si>
+  <si>
+    <t>32,37%</t>
+  </si>
+  <si>
+    <t>47,4%</t>
+  </si>
+  <si>
+    <t>66,7%</t>
+  </si>
+  <si>
+    <t>62,4%</t>
+  </si>
+  <si>
+    <t>70,78%</t>
+  </si>
+  <si>
+    <t>12,56%</t>
+  </si>
+  <si>
+    <t>9,46%</t>
+  </si>
+  <si>
+    <t>16,5%</t>
+  </si>
+  <si>
+    <t>65,54%</t>
+  </si>
+  <si>
+    <t>59,03%</t>
+  </si>
+  <si>
+    <t>71,46%</t>
+  </si>
+  <si>
+    <t>33,82%</t>
+  </si>
+  <si>
+    <t>30,21%</t>
+  </si>
+  <si>
+    <t>37,65%</t>
+  </si>
+  <si>
+    <t>87,44%</t>
+  </si>
+  <si>
+    <t>83,5%</t>
+  </si>
+  <si>
+    <t>90,54%</t>
+  </si>
+  <si>
+    <t>34,46%</t>
+  </si>
+  <si>
+    <t>28,54%</t>
+  </si>
+  <si>
+    <t>40,97%</t>
+  </si>
+  <si>
+    <t>66,18%</t>
+  </si>
+  <si>
+    <t>62,35%</t>
+  </si>
+  <si>
+    <t>69,79%</t>
+  </si>
+  <si>
+    <t>10,66%</t>
+  </si>
+  <si>
+    <t>7,18%</t>
+  </si>
+  <si>
+    <t>15,52%</t>
+  </si>
+  <si>
+    <t>68,25%</t>
+  </si>
+  <si>
+    <t>61,17%</t>
+  </si>
+  <si>
+    <t>75,29%</t>
+  </si>
+  <si>
+    <t>33,49%</t>
+  </si>
+  <si>
+    <t>28,97%</t>
+  </si>
+  <si>
+    <t>38,08%</t>
+  </si>
+  <si>
+    <t>89,34%</t>
+  </si>
+  <si>
+    <t>84,48%</t>
+  </si>
+  <si>
+    <t>92,82%</t>
+  </si>
+  <si>
+    <t>31,75%</t>
+  </si>
+  <si>
+    <t>24,71%</t>
+  </si>
+  <si>
+    <t>38,83%</t>
+  </si>
+  <si>
+    <t>66,51%</t>
+  </si>
+  <si>
+    <t>61,92%</t>
+  </si>
+  <si>
+    <t>71,03%</t>
+  </si>
+  <si>
+    <t>11,37%</t>
+  </si>
+  <si>
+    <t>8,0%</t>
+  </si>
+  <si>
+    <t>15,13%</t>
+  </si>
+  <si>
+    <t>76,76%</t>
+  </si>
+  <si>
+    <t>70,8%</t>
+  </si>
+  <si>
+    <t>81,55%</t>
+  </si>
+  <si>
+    <t>38,18%</t>
+  </si>
+  <si>
+    <t>34,33%</t>
+  </si>
+  <si>
+    <t>42,51%</t>
+  </si>
+  <si>
+    <t>88,63%</t>
+  </si>
+  <si>
+    <t>84,87%</t>
+  </si>
+  <si>
+    <t>92,0%</t>
+  </si>
+  <si>
+    <t>23,24%</t>
+  </si>
+  <si>
+    <t>18,45%</t>
+  </si>
+  <si>
+    <t>29,2%</t>
+  </si>
+  <si>
+    <t>61,82%</t>
+  </si>
+  <si>
+    <t>57,49%</t>
+  </si>
+  <si>
+    <t>65,67%</t>
+  </si>
+  <si>
+    <t>12,57%</t>
+  </si>
+  <si>
+    <t>10,75%</t>
+  </si>
+  <si>
+    <t>14,57%</t>
+  </si>
+  <si>
+    <t>68,1%</t>
+  </si>
+  <si>
+    <t>64,96%</t>
+  </si>
+  <si>
+    <t>71,07%</t>
+  </si>
+  <si>
+    <t>34,81%</t>
+  </si>
+  <si>
+    <t>32,8%</t>
+  </si>
+  <si>
+    <t>36,85%</t>
+  </si>
+  <si>
+    <t>87,43%</t>
+  </si>
+  <si>
+    <t>85,43%</t>
+  </si>
+  <si>
+    <t>89,25%</t>
+  </si>
+  <si>
+    <t>31,9%</t>
+  </si>
+  <si>
+    <t>28,93%</t>
+  </si>
+  <si>
+    <t>35,04%</t>
+  </si>
+  <si>
+    <t>65,19%</t>
+  </si>
+  <si>
+    <t>63,15%</t>
+  </si>
+  <si>
+    <t>67,2%</t>
+  </si>
+  <si>
+    <t>Población según si su pareja percibe algún tipo de pensión en 2016 (Tasa respuesta: 32,32%)</t>
+  </si>
+  <si>
+    <t>11,42%</t>
+  </si>
+  <si>
+    <t>8,21%</t>
+  </si>
+  <si>
+    <t>15,34%</t>
+  </si>
+  <si>
+    <t>66,88%</t>
+  </si>
+  <si>
+    <t>59,77%</t>
+  </si>
+  <si>
+    <t>73,44%</t>
+  </si>
+  <si>
+    <t>34,47%</t>
+  </si>
+  <si>
+    <t>30,04%</t>
+  </si>
+  <si>
+    <t>38,57%</t>
+  </si>
+  <si>
+    <t>88,58%</t>
+  </si>
+  <si>
+    <t>84,66%</t>
+  </si>
+  <si>
+    <t>91,79%</t>
+  </si>
+  <si>
+    <t>33,12%</t>
+  </si>
+  <si>
+    <t>26,56%</t>
+  </si>
+  <si>
+    <t>40,23%</t>
+  </si>
+  <si>
+    <t>65,53%</t>
+  </si>
+  <si>
+    <t>61,43%</t>
+  </si>
+  <si>
+    <t>69,96%</t>
+  </si>
+  <si>
+    <t>13,35%</t>
+  </si>
+  <si>
+    <t>10,22%</t>
+  </si>
+  <si>
+    <t>17,18%</t>
+  </si>
+  <si>
+    <t>64,2%</t>
+  </si>
+  <si>
+    <t>58,53%</t>
+  </si>
+  <si>
+    <t>70,66%</t>
+  </si>
+  <si>
+    <t>34,44%</t>
+  </si>
+  <si>
+    <t>30,82%</t>
+  </si>
+  <si>
+    <t>38,13%</t>
+  </si>
+  <si>
+    <t>86,65%</t>
+  </si>
+  <si>
+    <t>82,82%</t>
+  </si>
+  <si>
+    <t>89,78%</t>
+  </si>
+  <si>
+    <t>35,8%</t>
+  </si>
+  <si>
+    <t>29,34%</t>
+  </si>
+  <si>
+    <t>41,47%</t>
+  </si>
+  <si>
+    <t>65,56%</t>
+  </si>
+  <si>
+    <t>61,87%</t>
+  </si>
+  <si>
+    <t>69,18%</t>
   </si>
   <si>
     <t>7,9%</t>
   </si>
   <si>
-    <t>77,8%</t>
-  </si>
-  <si>
-    <t>59,24%</t>
-  </si>
-  <si>
-    <t>90,03%</t>
-  </si>
-  <si>
-    <t>40,69%</t>
-  </si>
-  <si>
-    <t>29,6%</t>
-  </si>
-  <si>
-    <t>51,92%</t>
-  </si>
-  <si>
-    <t>83,69%</t>
+    <t>5,38%</t>
+  </si>
+  <si>
+    <t>63,01%</t>
+  </si>
+  <si>
+    <t>55,73%</t>
+  </si>
+  <si>
+    <t>70,02%</t>
+  </si>
+  <si>
+    <t>28,99%</t>
+  </si>
+  <si>
+    <t>24,76%</t>
+  </si>
+  <si>
+    <t>33,1%</t>
   </si>
   <si>
     <t>92,1%</t>
-  </si>
-  <si>
-    <t>22,2%</t>
-  </si>
-  <si>
-    <t>9,97%</t>
-  </si>
-  <si>
-    <t>40,76%</t>
-  </si>
-  <si>
-    <t>59,31%</t>
-  </si>
-  <si>
-    <t>48,08%</t>
-  </si>
-  <si>
-    <t>70,4%</t>
-  </si>
-  <si>
-    <t>15,84%</t>
-  </si>
-  <si>
-    <t>11,71%</t>
-  </si>
-  <si>
-    <t>21,81%</t>
-  </si>
-  <si>
-    <t>57,25%</t>
-  </si>
-  <si>
-    <t>49,74%</t>
-  </si>
-  <si>
-    <t>65,02%</t>
-  </si>
-  <si>
-    <t>32,02%</t>
-  </si>
-  <si>
-    <t>27,69%</t>
-  </si>
-  <si>
-    <t>36,92%</t>
-  </si>
-  <si>
-    <t>84,16%</t>
-  </si>
-  <si>
-    <t>78,19%</t>
-  </si>
-  <si>
-    <t>88,29%</t>
-  </si>
-  <si>
-    <t>42,75%</t>
-  </si>
-  <si>
-    <t>34,98%</t>
-  </si>
-  <si>
-    <t>50,26%</t>
-  </si>
-  <si>
-    <t>67,98%</t>
-  </si>
-  <si>
-    <t>63,08%</t>
-  </si>
-  <si>
-    <t>72,31%</t>
-  </si>
-  <si>
-    <t>12,56%</t>
-  </si>
-  <si>
-    <t>9,46%</t>
-  </si>
-  <si>
-    <t>16,5%</t>
-  </si>
-  <si>
-    <t>65,54%</t>
-  </si>
-  <si>
-    <t>59,03%</t>
-  </si>
-  <si>
-    <t>71,46%</t>
-  </si>
-  <si>
-    <t>33,82%</t>
-  </si>
-  <si>
-    <t>30,21%</t>
-  </si>
-  <si>
-    <t>37,65%</t>
-  </si>
-  <si>
-    <t>87,44%</t>
-  </si>
-  <si>
-    <t>83,5%</t>
-  </si>
-  <si>
-    <t>90,54%</t>
-  </si>
-  <si>
-    <t>34,46%</t>
-  </si>
-  <si>
-    <t>28,54%</t>
-  </si>
-  <si>
-    <t>40,97%</t>
-  </si>
-  <si>
-    <t>66,18%</t>
-  </si>
-  <si>
-    <t>62,35%</t>
-  </si>
-  <si>
-    <t>69,79%</t>
-  </si>
-  <si>
-    <t>10,66%</t>
-  </si>
-  <si>
-    <t>7,18%</t>
-  </si>
-  <si>
-    <t>15,52%</t>
-  </si>
-  <si>
-    <t>68,25%</t>
-  </si>
-  <si>
-    <t>61,17%</t>
-  </si>
-  <si>
-    <t>75,29%</t>
-  </si>
-  <si>
-    <t>33,49%</t>
-  </si>
-  <si>
-    <t>28,97%</t>
-  </si>
-  <si>
-    <t>38,08%</t>
-  </si>
-  <si>
-    <t>89,34%</t>
-  </si>
-  <si>
-    <t>84,48%</t>
-  </si>
-  <si>
-    <t>92,82%</t>
-  </si>
-  <si>
-    <t>31,75%</t>
-  </si>
-  <si>
-    <t>24,71%</t>
-  </si>
-  <si>
-    <t>38,83%</t>
-  </si>
-  <si>
-    <t>66,51%</t>
-  </si>
-  <si>
-    <t>61,92%</t>
-  </si>
-  <si>
-    <t>71,03%</t>
-  </si>
-  <si>
-    <t>11,37%</t>
-  </si>
-  <si>
-    <t>8,0%</t>
-  </si>
-  <si>
-    <t>15,13%</t>
-  </si>
-  <si>
-    <t>76,76%</t>
-  </si>
-  <si>
-    <t>70,8%</t>
-  </si>
-  <si>
-    <t>81,55%</t>
-  </si>
-  <si>
-    <t>38,18%</t>
-  </si>
-  <si>
-    <t>34,33%</t>
-  </si>
-  <si>
-    <t>42,51%</t>
-  </si>
-  <si>
-    <t>88,63%</t>
-  </si>
-  <si>
-    <t>84,87%</t>
-  </si>
-  <si>
-    <t>92,0%</t>
-  </si>
-  <si>
-    <t>23,24%</t>
-  </si>
-  <si>
-    <t>18,45%</t>
-  </si>
-  <si>
-    <t>29,2%</t>
-  </si>
-  <si>
-    <t>61,82%</t>
-  </si>
-  <si>
-    <t>57,49%</t>
-  </si>
-  <si>
-    <t>65,67%</t>
-  </si>
-  <si>
-    <t>12,57%</t>
-  </si>
-  <si>
-    <t>10,75%</t>
-  </si>
-  <si>
-    <t>14,57%</t>
-  </si>
-  <si>
-    <t>68,1%</t>
-  </si>
-  <si>
-    <t>64,96%</t>
-  </si>
-  <si>
-    <t>71,07%</t>
-  </si>
-  <si>
-    <t>34,81%</t>
-  </si>
-  <si>
-    <t>32,8%</t>
-  </si>
-  <si>
-    <t>36,85%</t>
-  </si>
-  <si>
-    <t>87,43%</t>
-  </si>
-  <si>
-    <t>85,43%</t>
-  </si>
-  <si>
-    <t>89,25%</t>
-  </si>
-  <si>
-    <t>31,9%</t>
-  </si>
-  <si>
-    <t>28,93%</t>
-  </si>
-  <si>
-    <t>35,04%</t>
-  </si>
-  <si>
-    <t>65,19%</t>
-  </si>
-  <si>
-    <t>63,15%</t>
-  </si>
-  <si>
-    <t>67,2%</t>
-  </si>
-  <si>
-    <t>Población según si su pareja percibe algún tipo de pensión en 2016 (Tasa respuesta: 32,32%)</t>
-  </si>
-  <si>
-    <t>19,47%</t>
-  </si>
-  <si>
-    <t>10,62%</t>
-  </si>
-  <si>
-    <t>33,9%</t>
-  </si>
-  <si>
-    <t>68,59%</t>
-  </si>
-  <si>
-    <t>49,78%</t>
-  </si>
-  <si>
-    <t>82,96%</t>
-  </si>
-  <si>
-    <t>40,19%</t>
-  </si>
-  <si>
-    <t>29,23%</t>
-  </si>
-  <si>
-    <t>51,52%</t>
-  </si>
-  <si>
-    <t>80,53%</t>
-  </si>
-  <si>
-    <t>66,1%</t>
-  </si>
-  <si>
-    <t>89,38%</t>
-  </si>
-  <si>
-    <t>31,41%</t>
-  </si>
-  <si>
-    <t>17,04%</t>
-  </si>
-  <si>
-    <t>50,22%</t>
-  </si>
-  <si>
-    <t>59,81%</t>
-  </si>
-  <si>
-    <t>48,48%</t>
-  </si>
-  <si>
-    <t>70,77%</t>
-  </si>
-  <si>
-    <t>9,85%</t>
-  </si>
-  <si>
-    <t>6,59%</t>
-  </si>
-  <si>
-    <t>14,29%</t>
-  </si>
-  <si>
-    <t>66,53%</t>
-  </si>
-  <si>
-    <t>59,0%</t>
-  </si>
-  <si>
-    <t>73,11%</t>
-  </si>
-  <si>
-    <t>33,35%</t>
-  </si>
-  <si>
-    <t>28,46%</t>
-  </si>
-  <si>
-    <t>38,3%</t>
-  </si>
-  <si>
-    <t>90,15%</t>
-  </si>
-  <si>
-    <t>85,71%</t>
-  </si>
-  <si>
-    <t>93,41%</t>
-  </si>
-  <si>
-    <t>33,47%</t>
-  </si>
-  <si>
-    <t>26,89%</t>
-  </si>
-  <si>
-    <t>41,0%</t>
-  </si>
-  <si>
-    <t>66,65%</t>
-  </si>
-  <si>
-    <t>61,7%</t>
-  </si>
-  <si>
-    <t>71,54%</t>
-  </si>
-  <si>
-    <t>13,35%</t>
-  </si>
-  <si>
-    <t>10,22%</t>
-  </si>
-  <si>
-    <t>17,18%</t>
-  </si>
-  <si>
-    <t>64,2%</t>
-  </si>
-  <si>
-    <t>58,53%</t>
-  </si>
-  <si>
-    <t>70,66%</t>
-  </si>
-  <si>
-    <t>34,44%</t>
-  </si>
-  <si>
-    <t>30,82%</t>
-  </si>
-  <si>
-    <t>38,13%</t>
-  </si>
-  <si>
-    <t>86,65%</t>
-  </si>
-  <si>
-    <t>82,82%</t>
-  </si>
-  <si>
-    <t>89,78%</t>
-  </si>
-  <si>
-    <t>35,8%</t>
-  </si>
-  <si>
-    <t>29,34%</t>
-  </si>
-  <si>
-    <t>41,47%</t>
-  </si>
-  <si>
-    <t>65,56%</t>
-  </si>
-  <si>
-    <t>61,87%</t>
-  </si>
-  <si>
-    <t>69,18%</t>
-  </si>
-  <si>
-    <t>5,38%</t>
-  </si>
-  <si>
-    <t>11,42%</t>
-  </si>
-  <si>
-    <t>63,01%</t>
-  </si>
-  <si>
-    <t>55,73%</t>
-  </si>
-  <si>
-    <t>70,02%</t>
-  </si>
-  <si>
-    <t>28,99%</t>
-  </si>
-  <si>
-    <t>24,76%</t>
-  </si>
-  <si>
-    <t>33,1%</t>
-  </si>
-  <si>
-    <t>88,58%</t>
   </si>
   <si>
     <t>94,62%</t>
@@ -1463,8 +1304,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9884836F-6580-4194-BA67-BC54BD6E2719}">
-  <dimension ref="A1:Q22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5CFF8845-15E8-484C-B896-F2F854A56F95}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -1581,10 +1422,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>9</v>
+        <v>30</v>
       </c>
       <c r="D4" s="7">
-        <v>9432</v>
+        <v>29015</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -1596,10 +1437,10 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>29</v>
+        <v>129</v>
       </c>
       <c r="I4" s="7">
-        <v>24529</v>
+        <v>123753</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
@@ -1611,10 +1452,10 @@
         <v>16</v>
       </c>
       <c r="M4" s="7">
-        <v>38</v>
+        <v>159</v>
       </c>
       <c r="N4" s="7">
-        <v>33961</v>
+        <v>152768</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>17</v>
@@ -1632,10 +1473,10 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>46</v>
+        <v>294</v>
       </c>
       <c r="D5" s="7">
-        <v>49279</v>
+        <v>296130</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>21</v>
@@ -1647,10 +1488,10 @@
         <v>23</v>
       </c>
       <c r="H5" s="7">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="I5" s="7">
-        <v>7786</v>
+        <v>21362</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>24</v>
@@ -1662,10 +1503,10 @@
         <v>26</v>
       </c>
       <c r="M5" s="7">
-        <v>55</v>
+        <v>316</v>
       </c>
       <c r="N5" s="7">
-        <v>57065</v>
+        <v>317492</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>27</v>
@@ -1683,10 +1524,10 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>55</v>
+        <v>324</v>
       </c>
       <c r="D6" s="7">
-        <v>58711</v>
+        <v>325145</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -1698,10 +1539,10 @@
         <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>38</v>
+        <v>151</v>
       </c>
       <c r="I6" s="7">
-        <v>32315</v>
+        <v>145115</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -1713,10 +1554,10 @@
         <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>93</v>
+        <v>475</v>
       </c>
       <c r="N6" s="7">
-        <v>91026</v>
+        <v>470260</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -1736,10 +1577,10 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="D7" s="7">
-        <v>19582</v>
+        <v>35379</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>32</v>
@@ -1751,10 +1592,10 @@
         <v>34</v>
       </c>
       <c r="H7" s="7">
-        <v>100</v>
+        <v>131</v>
       </c>
       <c r="I7" s="7">
-        <v>99224</v>
+        <v>142216</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>35</v>
@@ -1766,10 +1607,10 @@
         <v>37</v>
       </c>
       <c r="M7" s="7">
-        <v>121</v>
+        <v>165</v>
       </c>
       <c r="N7" s="7">
-        <v>118807</v>
+        <v>177594</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>38</v>
@@ -1787,10 +1628,10 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>248</v>
+        <v>377</v>
       </c>
       <c r="D8" s="7">
-        <v>246852</v>
+        <v>397841</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>41</v>
@@ -1802,10 +1643,10 @@
         <v>43</v>
       </c>
       <c r="H8" s="7">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="I8" s="7">
-        <v>13576</v>
+        <v>23727</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>44</v>
@@ -1817,10 +1658,10 @@
         <v>46</v>
       </c>
       <c r="M8" s="7">
-        <v>261</v>
+        <v>399</v>
       </c>
       <c r="N8" s="7">
-        <v>260427</v>
+        <v>421569</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>47</v>
@@ -1838,10 +1679,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>269</v>
+        <v>411</v>
       </c>
       <c r="D9" s="7">
-        <v>266434</v>
+        <v>433220</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -1853,10 +1694,10 @@
         <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>113</v>
+        <v>153</v>
       </c>
       <c r="I9" s="7">
-        <v>112800</v>
+        <v>165943</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -1868,10 +1709,10 @@
         <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>382</v>
+        <v>564</v>
       </c>
       <c r="N9" s="7">
-        <v>379234</v>
+        <v>599163</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -1891,10 +1732,10 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="D10" s="7">
-        <v>35379</v>
+        <v>15646</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>51</v>
@@ -1906,10 +1747,10 @@
         <v>53</v>
       </c>
       <c r="H10" s="7">
-        <v>131</v>
+        <v>102</v>
       </c>
       <c r="I10" s="7">
-        <v>142216</v>
+        <v>96725</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>54</v>
@@ -1921,10 +1762,10 @@
         <v>56</v>
       </c>
       <c r="M10" s="7">
-        <v>165</v>
+        <v>118</v>
       </c>
       <c r="N10" s="7">
-        <v>177594</v>
+        <v>112370</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>57</v>
@@ -1942,10 +1783,10 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>377</v>
+        <v>286</v>
       </c>
       <c r="D11" s="7">
-        <v>397841</v>
+        <v>300409</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>60</v>
@@ -1957,10 +1798,10 @@
         <v>62</v>
       </c>
       <c r="H11" s="7">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="I11" s="7">
-        <v>23727</v>
+        <v>24986</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>63</v>
@@ -1972,10 +1813,10 @@
         <v>65</v>
       </c>
       <c r="M11" s="7">
-        <v>399</v>
+        <v>312</v>
       </c>
       <c r="N11" s="7">
-        <v>421569</v>
+        <v>325396</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>66</v>
@@ -1993,10 +1834,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>411</v>
+        <v>302</v>
       </c>
       <c r="D12" s="7">
-        <v>433220</v>
+        <v>316055</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -2008,10 +1849,10 @@
         <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>153</v>
+        <v>128</v>
       </c>
       <c r="I12" s="7">
-        <v>165943</v>
+        <v>121711</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -2023,10 +1864,10 @@
         <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>564</v>
+        <v>430</v>
       </c>
       <c r="N12" s="7">
-        <v>599163</v>
+        <v>437766</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -2046,10 +1887,10 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="D13" s="7">
-        <v>15646</v>
+        <v>27061</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>70</v>
@@ -2061,10 +1902,10 @@
         <v>72</v>
       </c>
       <c r="H13" s="7">
-        <v>102</v>
+        <v>143</v>
       </c>
       <c r="I13" s="7">
-        <v>96725</v>
+        <v>144720</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>73</v>
@@ -2076,10 +1917,10 @@
         <v>75</v>
       </c>
       <c r="M13" s="7">
-        <v>118</v>
+        <v>171</v>
       </c>
       <c r="N13" s="7">
-        <v>112370</v>
+        <v>171781</v>
       </c>
       <c r="O13" s="7" t="s">
         <v>76</v>
@@ -2097,10 +1938,10 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>286</v>
+        <v>339</v>
       </c>
       <c r="D14" s="7">
-        <v>300410</v>
+        <v>314030</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>79</v>
@@ -2112,10 +1953,10 @@
         <v>81</v>
       </c>
       <c r="H14" s="7">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="I14" s="7">
-        <v>24986</v>
+        <v>34588</v>
       </c>
       <c r="J14" s="7" t="s">
         <v>82</v>
@@ -2127,10 +1968,10 @@
         <v>84</v>
       </c>
       <c r="M14" s="7">
-        <v>312</v>
+        <v>372</v>
       </c>
       <c r="N14" s="7">
-        <v>325396</v>
+        <v>348618</v>
       </c>
       <c r="O14" s="7" t="s">
         <v>85</v>
@@ -2148,10 +1989,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>302</v>
+        <v>367</v>
       </c>
       <c r="D15" s="7">
-        <v>316056</v>
+        <v>341091</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -2163,10 +2004,10 @@
         <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>128</v>
+        <v>176</v>
       </c>
       <c r="I15" s="7">
-        <v>121711</v>
+        <v>179308</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -2178,10 +2019,10 @@
         <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>430</v>
+        <v>543</v>
       </c>
       <c r="N15" s="7">
-        <v>437766</v>
+        <v>520399</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -2195,55 +2036,55 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>88</v>
+        <v>3</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>28</v>
+        <v>108</v>
       </c>
       <c r="D16" s="7">
-        <v>27061</v>
+        <v>107100</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="F16" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="G16" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="G16" s="7" t="s">
+      <c r="H16" s="7">
+        <v>505</v>
+      </c>
+      <c r="I16" s="7">
+        <v>507414</v>
+      </c>
+      <c r="J16" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="H16" s="7">
-        <v>143</v>
-      </c>
-      <c r="I16" s="7">
-        <v>144720</v>
-      </c>
-      <c r="J16" s="7" t="s">
+      <c r="K16" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="L16" s="7" t="s">
+      <c r="M16" s="7">
+        <v>613</v>
+      </c>
+      <c r="N16" s="7">
+        <v>614514</v>
+      </c>
+      <c r="O16" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="M16" s="7">
-        <v>171</v>
-      </c>
-      <c r="N16" s="7">
-        <v>171781</v>
-      </c>
-      <c r="O16" s="7" t="s">
+      <c r="P16" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="P16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>96</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2252,49 +2093,49 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>339</v>
+        <v>1296</v>
       </c>
       <c r="D17" s="7">
-        <v>314030</v>
+        <v>1308412</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="G17" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="G17" s="7" t="s">
+      <c r="H17" s="7">
+        <v>103</v>
+      </c>
+      <c r="I17" s="7">
+        <v>104662</v>
+      </c>
+      <c r="J17" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="H17" s="7">
-        <v>33</v>
-      </c>
-      <c r="I17" s="7">
-        <v>34588</v>
-      </c>
-      <c r="J17" s="7" t="s">
+      <c r="K17" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="L17" s="7" t="s">
+      <c r="M17" s="7">
+        <v>1399</v>
+      </c>
+      <c r="N17" s="7">
+        <v>1413074</v>
+      </c>
+      <c r="O17" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="M17" s="7">
-        <v>372</v>
-      </c>
-      <c r="N17" s="7">
-        <v>348618</v>
-      </c>
-      <c r="O17" s="7" t="s">
+      <c r="P17" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="P17" s="7" t="s">
+      <c r="Q17" s="7" t="s">
         <v>105</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2303,10 +2144,10 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>367</v>
+        <v>1404</v>
       </c>
       <c r="D18" s="7">
-        <v>341091</v>
+        <v>1415512</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>30</v>
@@ -2318,10 +2159,10 @@
         <v>30</v>
       </c>
       <c r="H18" s="7">
-        <v>176</v>
+        <v>608</v>
       </c>
       <c r="I18" s="7">
-        <v>179308</v>
+        <v>612076</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>30</v>
@@ -2333,10 +2174,10 @@
         <v>30</v>
       </c>
       <c r="M18" s="7">
-        <v>543</v>
+        <v>2012</v>
       </c>
       <c r="N18" s="7">
-        <v>520399</v>
+        <v>2027588</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>30</v>
@@ -2349,171 +2190,15 @@
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="7">
-        <v>108</v>
-      </c>
-      <c r="D19" s="7">
-        <v>107100</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="H19" s="7">
-        <v>505</v>
-      </c>
-      <c r="I19" s="7">
-        <v>507414</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="M19" s="7">
-        <v>613</v>
-      </c>
-      <c r="N19" s="7">
-        <v>614514</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C20" s="7">
-        <v>1296</v>
-      </c>
-      <c r="D20" s="7">
-        <v>1308412</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="H20" s="7">
-        <v>103</v>
-      </c>
-      <c r="I20" s="7">
-        <v>104662</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="M20" s="7">
-        <v>1399</v>
-      </c>
-      <c r="N20" s="7">
-        <v>1413074</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="7">
-        <v>1404</v>
-      </c>
-      <c r="D21" s="7">
-        <v>1415512</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H21" s="7">
-        <v>608</v>
-      </c>
-      <c r="I21" s="7">
-        <v>612076</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M21" s="7">
-        <v>2012</v>
-      </c>
-      <c r="N21" s="7">
-        <v>2027588</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>125</v>
+      <c r="A19" t="s">
+        <v>106</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -2526,8 +2211,8 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{123DEE20-E1DF-43E4-84F1-16D92DACE811}">
-  <dimension ref="A1:Q22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{41C11553-C956-4DF6-8FD5-38CC04E5C540}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -2543,7 +2228,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>126</v>
+        <v>107</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2644,49 +2329,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>8</v>
+        <v>44</v>
       </c>
       <c r="D4" s="7">
-        <v>7189</v>
+        <v>47831</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>127</v>
+        <v>108</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>128</v>
+        <v>109</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>18</v>
+        <v>110</v>
       </c>
       <c r="H4" s="7">
-        <v>21</v>
+        <v>108</v>
       </c>
       <c r="I4" s="7">
-        <v>22533</v>
+        <v>116757</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>129</v>
+        <v>111</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>130</v>
+        <v>112</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>131</v>
+        <v>113</v>
       </c>
       <c r="M4" s="7">
-        <v>29</v>
+        <v>152</v>
       </c>
       <c r="N4" s="7">
-        <v>29722</v>
+        <v>164589</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>132</v>
+        <v>114</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>133</v>
+        <v>115</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>134</v>
+        <v>116</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2695,49 +2380,49 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>40</v>
+        <v>241</v>
       </c>
       <c r="D5" s="7">
-        <v>36890</v>
+        <v>252866</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>135</v>
+        <v>117</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>29</v>
+        <v>118</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>136</v>
+        <v>119</v>
       </c>
       <c r="H5" s="7">
-        <v>6</v>
+        <v>71</v>
       </c>
       <c r="I5" s="7">
-        <v>6429</v>
+        <v>76787</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>137</v>
+        <v>120</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>138</v>
+        <v>121</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>139</v>
+        <v>122</v>
       </c>
       <c r="M5" s="7">
-        <v>46</v>
+        <v>312</v>
       </c>
       <c r="N5" s="7">
-        <v>43319</v>
+        <v>329653</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>140</v>
+        <v>123</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>141</v>
+        <v>124</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>142</v>
+        <v>125</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2746,10 +2431,10 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>48</v>
+        <v>285</v>
       </c>
       <c r="D6" s="7">
-        <v>44079</v>
+        <v>300697</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -2761,10 +2446,10 @@
         <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>27</v>
+        <v>179</v>
       </c>
       <c r="I6" s="7">
-        <v>28962</v>
+        <v>193544</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -2776,10 +2461,10 @@
         <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>75</v>
+        <v>464</v>
       </c>
       <c r="N6" s="7">
-        <v>73041</v>
+        <v>494242</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -2799,49 +2484,49 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="D7" s="7">
-        <v>40642</v>
+        <v>52202</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>143</v>
+        <v>126</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>144</v>
+        <v>127</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>145</v>
+        <v>128</v>
       </c>
       <c r="H7" s="7">
-        <v>87</v>
+        <v>164</v>
       </c>
       <c r="I7" s="7">
-        <v>94225</v>
+        <v>182475</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>146</v>
+        <v>129</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>147</v>
+        <v>130</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>148</v>
+        <v>131</v>
       </c>
       <c r="M7" s="7">
-        <v>123</v>
+        <v>209</v>
       </c>
       <c r="N7" s="7">
-        <v>134867</v>
+        <v>234677</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>149</v>
+        <v>132</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>150</v>
+        <v>133</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>151</v>
+        <v>134</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2850,49 +2535,49 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>201</v>
+        <v>337</v>
       </c>
       <c r="D8" s="7">
-        <v>215976</v>
+        <v>363332</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>152</v>
+        <v>135</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>153</v>
+        <v>136</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>154</v>
+        <v>137</v>
       </c>
       <c r="H8" s="7">
-        <v>65</v>
+        <v>86</v>
       </c>
       <c r="I8" s="7">
-        <v>70358</v>
+        <v>95939</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>155</v>
+        <v>138</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>156</v>
+        <v>139</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>157</v>
+        <v>140</v>
       </c>
       <c r="M8" s="7">
-        <v>266</v>
+        <v>423</v>
       </c>
       <c r="N8" s="7">
-        <v>286334</v>
+        <v>459271</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>158</v>
+        <v>141</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>159</v>
+        <v>142</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>160</v>
+        <v>143</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2901,10 +2586,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>237</v>
+        <v>382</v>
       </c>
       <c r="D9" s="7">
-        <v>256618</v>
+        <v>415534</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -2916,10 +2601,10 @@
         <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>152</v>
+        <v>250</v>
       </c>
       <c r="I9" s="7">
-        <v>164583</v>
+        <v>278414</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -2931,10 +2616,10 @@
         <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>389</v>
+        <v>632</v>
       </c>
       <c r="N9" s="7">
-        <v>421201</v>
+        <v>693948</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -2954,49 +2639,49 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>45</v>
+        <v>26</v>
       </c>
       <c r="D10" s="7">
-        <v>52202</v>
+        <v>31479</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>161</v>
+        <v>144</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>162</v>
+        <v>145</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>163</v>
+        <v>146</v>
       </c>
       <c r="H10" s="7">
-        <v>164</v>
+        <v>119</v>
       </c>
       <c r="I10" s="7">
-        <v>182475</v>
+        <v>132361</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>164</v>
+        <v>147</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>165</v>
+        <v>148</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>166</v>
+        <v>149</v>
       </c>
       <c r="M10" s="7">
-        <v>209</v>
+        <v>145</v>
       </c>
       <c r="N10" s="7">
-        <v>234677</v>
+        <v>163841</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>167</v>
+        <v>150</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>168</v>
+        <v>151</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>169</v>
+        <v>152</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3005,49 +2690,49 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>337</v>
+        <v>240</v>
       </c>
       <c r="D11" s="7">
-        <v>363332</v>
+        <v>263868</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>170</v>
+        <v>153</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>171</v>
+        <v>154</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>172</v>
+        <v>155</v>
       </c>
       <c r="H11" s="7">
-        <v>86</v>
+        <v>58</v>
       </c>
       <c r="I11" s="7">
-        <v>95939</v>
+        <v>61577</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>173</v>
+        <v>156</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>174</v>
+        <v>157</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>175</v>
+        <v>158</v>
       </c>
       <c r="M11" s="7">
-        <v>423</v>
+        <v>298</v>
       </c>
       <c r="N11" s="7">
-        <v>459271</v>
+        <v>325445</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>176</v>
+        <v>159</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>177</v>
+        <v>160</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>178</v>
+        <v>161</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3056,10 +2741,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>382</v>
+        <v>266</v>
       </c>
       <c r="D12" s="7">
-        <v>415534</v>
+        <v>295347</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -3071,10 +2756,10 @@
         <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>250</v>
+        <v>177</v>
       </c>
       <c r="I12" s="7">
-        <v>278414</v>
+        <v>193938</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -3086,10 +2771,10 @@
         <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>632</v>
+        <v>443</v>
       </c>
       <c r="N12" s="7">
-        <v>693948</v>
+        <v>489286</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -3109,49 +2794,49 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="D13" s="7">
-        <v>31479</v>
+        <v>41352</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>179</v>
+        <v>162</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>180</v>
+        <v>163</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>181</v>
+        <v>164</v>
       </c>
       <c r="H13" s="7">
-        <v>119</v>
+        <v>183</v>
       </c>
       <c r="I13" s="7">
-        <v>132361</v>
+        <v>194046</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>182</v>
+        <v>165</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>183</v>
+        <v>166</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>184</v>
+        <v>167</v>
       </c>
       <c r="M13" s="7">
-        <v>145</v>
+        <v>220</v>
       </c>
       <c r="N13" s="7">
-        <v>163841</v>
+        <v>235398</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>185</v>
+        <v>168</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>186</v>
+        <v>169</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>187</v>
+        <v>170</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3160,49 +2845,49 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>240</v>
+        <v>308</v>
       </c>
       <c r="D14" s="7">
-        <v>263868</v>
+        <v>322418</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>188</v>
+        <v>171</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>189</v>
+        <v>172</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>190</v>
+        <v>173</v>
       </c>
       <c r="H14" s="7">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="I14" s="7">
-        <v>61577</v>
+        <v>58749</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>191</v>
+        <v>174</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>192</v>
+        <v>175</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>193</v>
+        <v>176</v>
       </c>
       <c r="M14" s="7">
-        <v>298</v>
+        <v>363</v>
       </c>
       <c r="N14" s="7">
-        <v>325445</v>
+        <v>381168</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>194</v>
+        <v>177</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>195</v>
+        <v>178</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>196</v>
+        <v>179</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3211,10 +2896,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>266</v>
+        <v>345</v>
       </c>
       <c r="D15" s="7">
-        <v>295347</v>
+        <v>363770</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -3226,10 +2911,10 @@
         <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>177</v>
+        <v>238</v>
       </c>
       <c r="I15" s="7">
-        <v>193938</v>
+        <v>252795</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -3241,10 +2926,10 @@
         <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>443</v>
+        <v>583</v>
       </c>
       <c r="N15" s="7">
-        <v>489286</v>
+        <v>616566</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -3258,55 +2943,55 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>88</v>
+        <v>3</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>37</v>
+        <v>152</v>
       </c>
       <c r="D16" s="7">
-        <v>41352</v>
+        <v>172865</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>197</v>
+        <v>180</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>198</v>
+        <v>181</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>199</v>
+        <v>182</v>
       </c>
       <c r="H16" s="7">
+        <v>574</v>
+      </c>
+      <c r="I16" s="7">
+        <v>625640</v>
+      </c>
+      <c r="J16" s="7" t="s">
         <v>183</v>
       </c>
-      <c r="I16" s="7">
-        <v>194046</v>
-      </c>
-      <c r="J16" s="7" t="s">
-        <v>200</v>
-      </c>
       <c r="K16" s="7" t="s">
-        <v>201</v>
+        <v>184</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>202</v>
+        <v>185</v>
       </c>
       <c r="M16" s="7">
-        <v>220</v>
+        <v>726</v>
       </c>
       <c r="N16" s="7">
-        <v>235398</v>
+        <v>798505</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>203</v>
+        <v>186</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>204</v>
+        <v>187</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>205</v>
+        <v>188</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3315,49 +3000,49 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>308</v>
+        <v>1126</v>
       </c>
       <c r="D17" s="7">
-        <v>322418</v>
+        <v>1202484</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>206</v>
+        <v>189</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>207</v>
+        <v>190</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>208</v>
+        <v>191</v>
       </c>
       <c r="H17" s="7">
-        <v>55</v>
+        <v>270</v>
       </c>
       <c r="I17" s="7">
-        <v>58749</v>
+        <v>293051</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>209</v>
+        <v>192</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>210</v>
+        <v>193</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>211</v>
+        <v>194</v>
       </c>
       <c r="M17" s="7">
-        <v>363</v>
+        <v>1396</v>
       </c>
       <c r="N17" s="7">
-        <v>381168</v>
+        <v>1495535</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>212</v>
+        <v>195</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>213</v>
+        <v>196</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>214</v>
+        <v>197</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3366,10 +3051,10 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>345</v>
+        <v>1278</v>
       </c>
       <c r="D18" s="7">
-        <v>363770</v>
+        <v>1375349</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>30</v>
@@ -3381,10 +3066,10 @@
         <v>30</v>
       </c>
       <c r="H18" s="7">
-        <v>238</v>
+        <v>844</v>
       </c>
       <c r="I18" s="7">
-        <v>252795</v>
+        <v>918691</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>30</v>
@@ -3396,10 +3081,10 @@
         <v>30</v>
       </c>
       <c r="M18" s="7">
-        <v>583</v>
+        <v>2122</v>
       </c>
       <c r="N18" s="7">
-        <v>616566</v>
+        <v>2294040</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>30</v>
@@ -3412,171 +3097,15 @@
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="7">
-        <v>152</v>
-      </c>
-      <c r="D19" s="7">
-        <v>172865</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>215</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>216</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>217</v>
-      </c>
-      <c r="H19" s="7">
-        <v>574</v>
-      </c>
-      <c r="I19" s="7">
-        <v>625640</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>218</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>219</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>220</v>
-      </c>
-      <c r="M19" s="7">
-        <v>726</v>
-      </c>
-      <c r="N19" s="7">
-        <v>798505</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>221</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>222</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C20" s="7">
-        <v>1126</v>
-      </c>
-      <c r="D20" s="7">
-        <v>1202484</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>224</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>225</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>226</v>
-      </c>
-      <c r="H20" s="7">
-        <v>270</v>
-      </c>
-      <c r="I20" s="7">
-        <v>293051</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>227</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>228</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>229</v>
-      </c>
-      <c r="M20" s="7">
-        <v>1396</v>
-      </c>
-      <c r="N20" s="7">
-        <v>1495535</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>230</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>231</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="7">
-        <v>1278</v>
-      </c>
-      <c r="D21" s="7">
-        <v>1375349</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H21" s="7">
-        <v>844</v>
-      </c>
-      <c r="I21" s="7">
-        <v>918691</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M21" s="7">
-        <v>2122</v>
-      </c>
-      <c r="N21" s="7">
-        <v>2294040</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>125</v>
+      <c r="A19" t="s">
+        <v>106</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -3589,8 +3118,8 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13513AAA-34BD-41FE-8373-4EE2D8BD9A62}">
-  <dimension ref="A1:Q22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14680F1C-82A5-4534-AAFF-25951C4BB4D5}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -3606,7 +3135,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>233</v>
+        <v>198</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3707,49 +3236,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>9</v>
+        <v>34</v>
       </c>
       <c r="D4" s="7">
-        <v>9011</v>
+        <v>32544</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>234</v>
+        <v>199</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>235</v>
+        <v>200</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>236</v>
+        <v>201</v>
       </c>
       <c r="H4" s="7">
-        <v>22</v>
+        <v>127</v>
       </c>
       <c r="I4" s="7">
-        <v>23174</v>
+        <v>135670</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>237</v>
+        <v>202</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>238</v>
+        <v>203</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>239</v>
+        <v>204</v>
       </c>
       <c r="M4" s="7">
-        <v>31</v>
+        <v>161</v>
       </c>
       <c r="N4" s="7">
-        <v>32185</v>
+        <v>168214</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>240</v>
+        <v>205</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>241</v>
+        <v>206</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>242</v>
+        <v>207</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3758,49 +3287,49 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>36</v>
+        <v>243</v>
       </c>
       <c r="D5" s="7">
-        <v>37275</v>
+        <v>252536</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>243</v>
+        <v>208</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>244</v>
+        <v>209</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>245</v>
+        <v>210</v>
       </c>
       <c r="H5" s="7">
-        <v>10</v>
+        <v>68</v>
       </c>
       <c r="I5" s="7">
-        <v>10615</v>
+        <v>67197</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>246</v>
+        <v>211</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>247</v>
+        <v>212</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>248</v>
+        <v>213</v>
       </c>
       <c r="M5" s="7">
-        <v>46</v>
+        <v>311</v>
       </c>
       <c r="N5" s="7">
-        <v>47889</v>
+        <v>319734</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>249</v>
+        <v>214</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>250</v>
+        <v>215</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>251</v>
+        <v>216</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3809,10 +3338,10 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>45</v>
+        <v>277</v>
       </c>
       <c r="D6" s="7">
-        <v>46286</v>
+        <v>285080</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -3824,10 +3353,10 @@
         <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>32</v>
+        <v>195</v>
       </c>
       <c r="I6" s="7">
-        <v>33789</v>
+        <v>202867</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -3839,10 +3368,10 @@
         <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>77</v>
+        <v>472</v>
       </c>
       <c r="N6" s="7">
-        <v>80074</v>
+        <v>487948</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -3862,49 +3391,49 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>25</v>
+        <v>49</v>
       </c>
       <c r="D7" s="7">
-        <v>23533</v>
+        <v>52771</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>252</v>
+        <v>217</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>253</v>
+        <v>218</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>254</v>
+        <v>219</v>
       </c>
       <c r="H7" s="7">
-        <v>105</v>
+        <v>153</v>
       </c>
       <c r="I7" s="7">
-        <v>112496</v>
+        <v>179883</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>255</v>
+        <v>220</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>256</v>
+        <v>221</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>257</v>
+        <v>222</v>
       </c>
       <c r="M7" s="7">
-        <v>130</v>
+        <v>202</v>
       </c>
       <c r="N7" s="7">
-        <v>136029</v>
+        <v>232654</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>258</v>
+        <v>223</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>259</v>
+        <v>224</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>260</v>
+        <v>225</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3913,49 +3442,49 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>207</v>
+        <v>318</v>
       </c>
       <c r="D8" s="7">
-        <v>215262</v>
+        <v>342487</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>261</v>
+        <v>226</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>262</v>
+        <v>227</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>263</v>
+        <v>228</v>
       </c>
       <c r="H8" s="7">
-        <v>58</v>
+        <v>95</v>
       </c>
       <c r="I8" s="7">
-        <v>56582</v>
+        <v>100308</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>264</v>
+        <v>229</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>265</v>
+        <v>230</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>266</v>
+        <v>231</v>
       </c>
       <c r="M8" s="7">
-        <v>265</v>
+        <v>413</v>
       </c>
       <c r="N8" s="7">
-        <v>271844</v>
+        <v>442795</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>267</v>
+        <v>232</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>268</v>
+        <v>233</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>269</v>
+        <v>234</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3964,10 +3493,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>232</v>
+        <v>367</v>
       </c>
       <c r="D9" s="7">
-        <v>238795</v>
+        <v>395258</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -3979,10 +3508,10 @@
         <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>163</v>
+        <v>248</v>
       </c>
       <c r="I9" s="7">
-        <v>169078</v>
+        <v>280191</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -3994,10 +3523,10 @@
         <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>395</v>
+        <v>615</v>
       </c>
       <c r="N9" s="7">
-        <v>407873</v>
+        <v>675449</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -4017,49 +3546,49 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>49</v>
+        <v>25</v>
       </c>
       <c r="D10" s="7">
-        <v>52771</v>
+        <v>25159</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>270</v>
+        <v>235</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>271</v>
+        <v>236</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>272</v>
+        <v>199</v>
       </c>
       <c r="H10" s="7">
-        <v>153</v>
+        <v>108</v>
       </c>
       <c r="I10" s="7">
-        <v>179883</v>
+        <v>124358</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>273</v>
+        <v>237</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>274</v>
+        <v>238</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>275</v>
+        <v>239</v>
       </c>
       <c r="M10" s="7">
-        <v>202</v>
+        <v>133</v>
       </c>
       <c r="N10" s="7">
-        <v>232655</v>
+        <v>149517</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>276</v>
+        <v>240</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>277</v>
+        <v>241</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>278</v>
+        <v>242</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4068,49 +3597,49 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>318</v>
+        <v>272</v>
       </c>
       <c r="D11" s="7">
-        <v>342487</v>
+        <v>293188</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>279</v>
+        <v>243</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>280</v>
+        <v>208</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>281</v>
+        <v>244</v>
       </c>
       <c r="H11" s="7">
-        <v>95</v>
+        <v>71</v>
       </c>
       <c r="I11" s="7">
-        <v>100308</v>
+        <v>72992</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>282</v>
+        <v>245</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>283</v>
+        <v>246</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>284</v>
+        <v>247</v>
       </c>
       <c r="M11" s="7">
-        <v>413</v>
+        <v>343</v>
       </c>
       <c r="N11" s="7">
-        <v>442795</v>
+        <v>366180</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>285</v>
+        <v>248</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>286</v>
+        <v>249</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>287</v>
+        <v>250</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4119,10 +3648,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>367</v>
+        <v>297</v>
       </c>
       <c r="D12" s="7">
-        <v>395258</v>
+        <v>318347</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -4134,10 +3663,10 @@
         <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>248</v>
+        <v>179</v>
       </c>
       <c r="I12" s="7">
-        <v>280191</v>
+        <v>197350</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -4149,10 +3678,10 @@
         <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>615</v>
+        <v>476</v>
       </c>
       <c r="N12" s="7">
-        <v>675450</v>
+        <v>515697</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -4172,49 +3701,49 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>25</v>
+        <v>61</v>
       </c>
       <c r="D13" s="7">
-        <v>25159</v>
+        <v>58611</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>128</v>
+        <v>251</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>288</v>
+        <v>252</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>289</v>
+        <v>253</v>
       </c>
       <c r="H13" s="7">
-        <v>108</v>
+        <v>133</v>
       </c>
       <c r="I13" s="7">
-        <v>124358</v>
+        <v>152963</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>290</v>
+        <v>254</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>291</v>
+        <v>220</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>292</v>
+        <v>255</v>
       </c>
       <c r="M13" s="7">
-        <v>133</v>
+        <v>194</v>
       </c>
       <c r="N13" s="7">
-        <v>149517</v>
+        <v>211573</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>293</v>
+        <v>256</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>294</v>
+        <v>257</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>295</v>
+        <v>258</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4223,49 +3752,49 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>272</v>
+        <v>308</v>
       </c>
       <c r="D14" s="7">
-        <v>293188</v>
+        <v>300543</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>136</v>
+        <v>259</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>296</v>
+        <v>260</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>297</v>
+        <v>261</v>
       </c>
       <c r="H14" s="7">
-        <v>71</v>
+        <v>58</v>
       </c>
       <c r="I14" s="7">
-        <v>72992</v>
+        <v>63026</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>298</v>
+        <v>262</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>299</v>
+        <v>263</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>300</v>
+        <v>229</v>
       </c>
       <c r="M14" s="7">
-        <v>343</v>
+        <v>366</v>
       </c>
       <c r="N14" s="7">
-        <v>366180</v>
+        <v>363569</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>301</v>
+        <v>264</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>302</v>
+        <v>265</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>303</v>
+        <v>266</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4274,10 +3803,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>297</v>
+        <v>369</v>
       </c>
       <c r="D15" s="7">
-        <v>318347</v>
+        <v>359154</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -4289,10 +3818,10 @@
         <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>179</v>
+        <v>191</v>
       </c>
       <c r="I15" s="7">
-        <v>197350</v>
+        <v>215989</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -4304,10 +3833,10 @@
         <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>476</v>
+        <v>560</v>
       </c>
       <c r="N15" s="7">
-        <v>515697</v>
+        <v>575142</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -4321,55 +3850,55 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>88</v>
+        <v>3</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>61</v>
+        <v>169</v>
       </c>
       <c r="D16" s="7">
-        <v>58611</v>
+        <v>169085</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>304</v>
+        <v>267</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>305</v>
+        <v>268</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>306</v>
+        <v>269</v>
       </c>
       <c r="H16" s="7">
-        <v>133</v>
+        <v>521</v>
       </c>
       <c r="I16" s="7">
-        <v>152963</v>
+        <v>592873</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>307</v>
+        <v>270</v>
       </c>
       <c r="K16" s="7" t="s">
+        <v>271</v>
+      </c>
+      <c r="L16" s="7" t="s">
+        <v>272</v>
+      </c>
+      <c r="M16" s="7">
+        <v>690</v>
+      </c>
+      <c r="N16" s="7">
+        <v>761958</v>
+      </c>
+      <c r="O16" s="7" t="s">
         <v>273</v>
       </c>
-      <c r="L16" s="7" t="s">
-        <v>308</v>
-      </c>
-      <c r="M16" s="7">
-        <v>194</v>
-      </c>
-      <c r="N16" s="7">
-        <v>211573</v>
-      </c>
-      <c r="O16" s="7" t="s">
-        <v>309</v>
-      </c>
       <c r="P16" s="7" t="s">
-        <v>310</v>
+        <v>274</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>311</v>
+        <v>275</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4378,49 +3907,49 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>308</v>
+        <v>1141</v>
       </c>
       <c r="D17" s="7">
-        <v>300543</v>
+        <v>1188754</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>312</v>
+        <v>276</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>313</v>
+        <v>277</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>314</v>
+        <v>278</v>
       </c>
       <c r="H17" s="7">
-        <v>58</v>
+        <v>292</v>
       </c>
       <c r="I17" s="7">
-        <v>63026</v>
+        <v>303524</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>315</v>
+        <v>279</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>316</v>
+        <v>280</v>
       </c>
       <c r="L17" s="7" t="s">
+        <v>281</v>
+      </c>
+      <c r="M17" s="7">
+        <v>1433</v>
+      </c>
+      <c r="N17" s="7">
+        <v>1492279</v>
+      </c>
+      <c r="O17" s="7" t="s">
         <v>282</v>
       </c>
-      <c r="M17" s="7">
-        <v>366</v>
-      </c>
-      <c r="N17" s="7">
-        <v>363569</v>
-      </c>
-      <c r="O17" s="7" t="s">
-        <v>317</v>
-      </c>
       <c r="P17" s="7" t="s">
-        <v>318</v>
+        <v>283</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>319</v>
+        <v>284</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4429,10 +3958,10 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>369</v>
+        <v>1310</v>
       </c>
       <c r="D18" s="7">
-        <v>359154</v>
+        <v>1357839</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>30</v>
@@ -4444,10 +3973,10 @@
         <v>30</v>
       </c>
       <c r="H18" s="7">
-        <v>191</v>
+        <v>813</v>
       </c>
       <c r="I18" s="7">
-        <v>215989</v>
+        <v>896397</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>30</v>
@@ -4459,10 +3988,10 @@
         <v>30</v>
       </c>
       <c r="M18" s="7">
-        <v>560</v>
+        <v>2123</v>
       </c>
       <c r="N18" s="7">
-        <v>575142</v>
+        <v>2254237</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>30</v>
@@ -4475,171 +4004,15 @@
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="7">
-        <v>169</v>
-      </c>
-      <c r="D19" s="7">
-        <v>169085</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>320</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>321</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>322</v>
-      </c>
-      <c r="H19" s="7">
-        <v>521</v>
-      </c>
-      <c r="I19" s="7">
-        <v>592873</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>323</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>324</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>325</v>
-      </c>
-      <c r="M19" s="7">
-        <v>690</v>
-      </c>
-      <c r="N19" s="7">
-        <v>761958</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>326</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>327</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C20" s="7">
-        <v>1141</v>
-      </c>
-      <c r="D20" s="7">
-        <v>1188754</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>329</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>330</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>331</v>
-      </c>
-      <c r="H20" s="7">
-        <v>292</v>
-      </c>
-      <c r="I20" s="7">
-        <v>303524</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>332</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>333</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>334</v>
-      </c>
-      <c r="M20" s="7">
-        <v>1433</v>
-      </c>
-      <c r="N20" s="7">
-        <v>1492279</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>335</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>336</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="7">
-        <v>1310</v>
-      </c>
-      <c r="D21" s="7">
-        <v>1357839</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H21" s="7">
-        <v>813</v>
-      </c>
-      <c r="I21" s="7">
-        <v>896397</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M21" s="7">
-        <v>2123</v>
-      </c>
-      <c r="N21" s="7">
-        <v>2254237</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>125</v>
+      <c r="A19" t="s">
+        <v>106</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
